--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="-80" windowWidth="25600" windowHeight="19280" tabRatio="993"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="993" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,9 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>G:</t>
         </r>
@@ -270,10 +269,9 @@
         <r>
           <rPr>
             <sz val="12"/>
-            <color theme="1"/>
+            <color indexed="8"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>G:</t>
         </r>
@@ -295,6 +293,37 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>G</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Review values with Lara</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -792,11 +821,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1133,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
@@ -8216,7 +8242,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -12385,7 +12410,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -17864,7 +17888,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C5" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,1000000,"N.A.")</f>
+        <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,1000000,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D2" t="s">
@@ -17928,7 +17952,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,1000000,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D3" t="s">
@@ -17992,7 +18016,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUMPRODUCT(--(E4:T4&lt;&gt;""))=0,1000000,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D4" t="s">
@@ -18056,7 +18080,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(SUMPRODUCT(--(E5:T5&lt;&gt;""))=0,1000000,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D5" t="s">
@@ -18211,7 +18235,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
+        <f t="shared" ref="C10:C15" si="0">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D10" t="s">
@@ -18272,7 +18296,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" t="s">
@@ -18288,7 +18312,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" t="s">
@@ -18304,7 +18328,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" t="s">
@@ -18320,7 +18344,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" t="s">
@@ -18336,7 +18360,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" t="s">
@@ -18411,7 +18435,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
+        <f t="shared" ref="C18:C23" si="1">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D18" t="s">
@@ -18475,7 +18499,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>N.A.</v>
       </c>
       <c r="D19" t="s">
@@ -18536,7 +18560,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>N.A.</v>
       </c>
       <c r="D20" t="s">
@@ -18597,7 +18621,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>N.A.</v>
       </c>
       <c r="D21" t="s">
@@ -18659,7 +18683,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D22" t="s">
@@ -18675,7 +18699,7 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D23" t="s">
@@ -18740,7 +18764,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -20338,7 +20361,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22153,7 +22176,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -24341,8 +24363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24483,8 +24505,8 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -24499,8 +24521,8 @@
         <v>20</v>
       </c>
       <c r="C7">
-        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -24638,8 +24660,8 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -24654,8 +24676,8 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -24793,8 +24815,8 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -24809,8 +24831,8 @@
         <v>20</v>
       </c>
       <c r="C23">
-        <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
@@ -24948,8 +24970,8 @@
         <v>20</v>
       </c>
       <c r="C30">
-        <f>IF(SUMPRODUCT(--(E30:T30&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E30:T30&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -24964,8 +24986,8 @@
         <v>20</v>
       </c>
       <c r="C31">
-        <f>IF(SUMPRODUCT(--(E31:T31&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E31:T31&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -25103,8 +25125,8 @@
         <v>20</v>
       </c>
       <c r="C38">
-        <f>IF(SUMPRODUCT(--(E38:T38&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E38:T38&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
@@ -25119,8 +25141,8 @@
         <v>20</v>
       </c>
       <c r="C39">
-        <f>IF(SUMPRODUCT(--(E39:T39&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E39:T39&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
@@ -25258,8 +25280,8 @@
         <v>20</v>
       </c>
       <c r="C46">
-        <f>IF(SUMPRODUCT(--(E46:T46&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E46:T46&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -25274,8 +25296,8 @@
         <v>20</v>
       </c>
       <c r="C47">
-        <f>IF(SUMPRODUCT(--(E47:T47&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E47:T47&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -25413,8 +25435,8 @@
         <v>20</v>
       </c>
       <c r="C54">
-        <f>IF(SUMPRODUCT(--(E54:T54&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E54:T54&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -25429,8 +25451,8 @@
         <v>20</v>
       </c>
       <c r="C55">
-        <f>IF(SUMPRODUCT(--(E55:T55&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E55:T55&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -25568,8 +25590,8 @@
         <v>20</v>
       </c>
       <c r="C62">
-        <f>IF(SUMPRODUCT(--(E62:T62&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E62:T62&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
@@ -25584,8 +25606,8 @@
         <v>20</v>
       </c>
       <c r="C63">
-        <f>IF(SUMPRODUCT(--(E63:T63&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E63:T63&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
@@ -25749,11 +25771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -26295,7 +26317,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.1,"N.A.")</f>
         <v>0.1</v>
       </c>
       <c r="D26" t="s">
@@ -26311,7 +26333,7 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <f>IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="D27" t="s">
@@ -26327,7 +26349,7 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <f>IF(SUMPRODUCT(--(E28:T28&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="D28" t="s">
@@ -26343,7 +26365,7 @@
         <v>10</v>
       </c>
       <c r="C29">
-        <f>IF(SUMPRODUCT(--(E29:T29&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
       <c r="D29" t="s">
@@ -26359,8 +26381,8 @@
         <v>10</v>
       </c>
       <c r="C30">
-        <f>IF(SUMPRODUCT(--(E30:T30&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -26375,8 +26397,8 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <f>IF(SUMPRODUCT(--(E31:T31&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.1</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -26450,7 +26472,7 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C39" si="3">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.22,"N.A.")</f>
+        <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.22,"N.A.")</f>
         <v>0.22</v>
       </c>
       <c r="D34" t="s">
@@ -26466,7 +26488,7 @@
         <v>10</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="D35" t="s">
@@ -26482,7 +26504,7 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="D36" t="s">
@@ -26498,7 +26520,7 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="D37" t="s">
@@ -26514,7 +26536,7 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="D38" t="s">
@@ -26530,7 +26552,7 @@
         <v>10</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.22</v>
       </c>
       <c r="D39" t="s">
@@ -26605,8 +26627,8 @@
         <v>10</v>
       </c>
       <c r="C42">
-        <f>IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,9,"N.A.")</f>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -26621,8 +26643,8 @@
         <v>10</v>
       </c>
       <c r="C43">
-        <f t="shared" ref="C43:C47" si="4">IF(SUMPRODUCT(--(E43:T43&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -26637,8 +26659,8 @@
         <v>10</v>
       </c>
       <c r="C44">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -26653,8 +26675,8 @@
         <v>10</v>
       </c>
       <c r="C45">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
@@ -26669,8 +26691,8 @@
         <v>10</v>
       </c>
       <c r="C46">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -26685,8 +26707,8 @@
         <v>10</v>
       </c>
       <c r="C47">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
@@ -26760,8 +26782,8 @@
         <v>10</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C55" si="5">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,1,"N.A.")</f>
-        <v>1</v>
+        <f t="shared" ref="C50:C55" si="6">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,9,"N.A.")</f>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
@@ -26776,8 +26798,8 @@
         <v>10</v>
       </c>
       <c r="C51">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
@@ -26792,8 +26814,8 @@
         <v>10</v>
       </c>
       <c r="C52">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
@@ -26808,8 +26830,8 @@
         <v>10</v>
       </c>
       <c r="C53">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
@@ -26824,8 +26846,8 @@
         <v>10</v>
       </c>
       <c r="C54">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -26840,8 +26862,8 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -26977,6 +26999,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="993" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -61,74 +61,6 @@
           </rPr>
           <t xml:space="preserve">
 WB, 2000-14 crude Birth rates per 1000</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="T18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">G: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>WB</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> U5-MR per 1000</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="S19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>G:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WB: 2000-14, deaths per 1000
-</t>
         </r>
       </text>
     </comment>
@@ -264,6 +196,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="P10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>G:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated 70% of active prevalence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Calculated 30% of active prevalence</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A73" authorId="0">
       <text>
         <r>
@@ -350,6 +331,65 @@
           </rPr>
           <t xml:space="preserve">
 WHO - UNICEF Belarus BCG coverage estimates</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>G</author>
+  </authors>
+  <commentList>
+    <comment ref="A9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Two Belarus Survey Studies using electronic database register</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+All rates below are from the Global Fund Concept Note.
+Could not include country data given the time constraint and that fractions are required </t>
         </r>
       </text>
     </comment>
@@ -799,7 +839,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -823,6 +866,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -860,9 +909,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1159,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
@@ -3281,11 +3330,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N154" sqref="N154:P157"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8242,6 +8291,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -10008,8 +10058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N82" sqref="N82:P85"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12423,7 +12473,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12499,12 +12549,18 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -12515,12 +12571,18 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -12531,12 +12593,60 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="E4">
+        <v>595</v>
+      </c>
+      <c r="F4">
+        <v>700</v>
+      </c>
+      <c r="G4">
+        <v>626</v>
+      </c>
+      <c r="H4">
+        <v>911</v>
+      </c>
+      <c r="I4">
+        <v>955</v>
+      </c>
+      <c r="J4">
+        <v>1071</v>
+      </c>
+      <c r="K4">
+        <v>888</v>
+      </c>
+      <c r="L4">
+        <v>801</v>
+      </c>
+      <c r="M4">
+        <v>733</v>
+      </c>
+      <c r="N4">
+        <v>658</v>
+      </c>
+      <c r="O4">
+        <v>696</v>
+      </c>
+      <c r="P4">
+        <v>667</v>
+      </c>
+      <c r="Q4">
+        <v>577</v>
+      </c>
+      <c r="R4">
+        <v>481</v>
+      </c>
+      <c r="S4">
+        <v>392</v>
+      </c>
+      <c r="T4">
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -12547,12 +12657,60 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5">
+        <v>131</v>
+      </c>
+      <c r="F5">
+        <v>127</v>
+      </c>
+      <c r="G5">
+        <v>128</v>
+      </c>
+      <c r="H5">
+        <v>112</v>
+      </c>
+      <c r="I5">
+        <v>132</v>
+      </c>
+      <c r="J5">
+        <v>114</v>
+      </c>
+      <c r="K5">
+        <v>88</v>
+      </c>
+      <c r="L5">
+        <v>97</v>
+      </c>
+      <c r="M5">
+        <v>97</v>
+      </c>
+      <c r="N5">
+        <v>106</v>
+      </c>
+      <c r="O5">
+        <v>79</v>
+      </c>
+      <c r="P5">
+        <v>70</v>
+      </c>
+      <c r="Q5">
+        <v>72</v>
+      </c>
+      <c r="R5">
+        <v>66</v>
+      </c>
+      <c r="S5">
+        <v>53</v>
+      </c>
+      <c r="T5">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -17808,15 +17966,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18442,52 +18600,52 @@
         <v>12</v>
       </c>
       <c r="E18">
-        <v>1.43E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F18">
-        <v>1.2999999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="G18">
-        <v>1.1900000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="H18">
-        <v>1.09E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="I18">
-        <v>1.0200000000000001E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J18">
-        <v>9.4000000000000004E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="K18">
-        <v>8.6999999999999994E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="L18">
-        <v>7.9000000000000008E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M18">
-        <v>7.1999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="N18" s="3">
-        <v>6.6E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="O18" s="3">
-        <v>6.1000000000000004E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="P18" s="3">
-        <v>5.5999999999999999E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="Q18">
-        <v>5.3E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="R18" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="S18" s="3">
-        <v>4.7000000000000002E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="T18">
-        <v>4.5999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -18506,49 +18664,52 @@
         <v>12</v>
       </c>
       <c r="E19">
-        <v>1.35E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F19">
-        <v>1.41E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="G19">
-        <v>1.49E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="H19">
-        <v>1.46E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="I19">
-        <v>1.44E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J19">
-        <v>1.47E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K19">
-        <v>1.44E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="L19">
-        <v>1.3899999999999999E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M19">
-        <v>1.41E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="N19">
-        <v>1.4200000000000001E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="O19">
-        <v>1.44E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P19">
-        <v>1.43E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="Q19">
-        <v>1.34E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="R19">
-        <v>1.32E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="S19">
-        <v>1.2800000000000001E-2</v>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T19">
+        <v>2.0000000000000001E-4</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -18567,49 +18728,52 @@
         <v>12</v>
       </c>
       <c r="E20">
-        <v>1.35E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F20">
-        <v>1.41E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="G20">
-        <v>1.49E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H20">
-        <v>1.46E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="I20">
-        <v>1.44E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="J20">
-        <v>1.47E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="K20">
-        <v>1.44E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="L20">
-        <v>1.3899999999999999E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="M20">
-        <v>1.41E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="N20">
-        <v>1.4200000000000001E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="O20">
-        <v>1.44E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="P20">
-        <v>1.43E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="Q20">
-        <v>1.34E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="R20">
-        <v>1.32E-2</v>
+        <v>6.6E-3</v>
       </c>
       <c r="S20">
-        <v>1.2800000000000001E-2</v>
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="T20">
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -18628,51 +18792,53 @@
         <v>12</v>
       </c>
       <c r="E21">
-        <v>1.35E-2</v>
+        <v>7.5700000000000003E-2</v>
       </c>
       <c r="F21">
-        <v>1.41E-2</v>
+        <v>7.4499999999999997E-2</v>
       </c>
       <c r="G21">
-        <v>1.49E-2</v>
+        <v>7.3099999999999998E-2</v>
       </c>
       <c r="H21">
-        <v>1.46E-2</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="I21">
-        <v>1.44E-2</v>
+        <v>7.1400000000000005E-2</v>
       </c>
       <c r="J21">
-        <v>1.47E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="K21">
-        <v>1.44E-2</v>
+        <v>6.9800000000000001E-2</v>
       </c>
       <c r="L21">
-        <v>1.3899999999999999E-2</v>
+        <v>7.0800000000000002E-2</v>
       </c>
       <c r="M21">
-        <v>1.41E-2</v>
+        <v>7.2099999999999997E-2</v>
       </c>
       <c r="N21">
-        <v>1.4200000000000001E-2</v>
+        <v>7.3400000000000007E-2</v>
       </c>
       <c r="O21">
-        <v>1.44E-2</v>
+        <v>6.6900000000000001E-2</v>
       </c>
       <c r="P21">
-        <v>1.43E-2</v>
+        <v>6.6799999999999998E-2</v>
       </c>
       <c r="Q21">
-        <v>1.34E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="R21">
-        <v>1.32E-2</v>
+        <v>6.6699999999999995E-2</v>
       </c>
       <c r="S21">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="T21" s="4"/>
+        <v>6.6799999999999998E-2</v>
+      </c>
+      <c r="T21" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="str">
@@ -20361,7 +20527,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22189,8 +22355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O66" sqref="O66:T69"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -24363,7 +24529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -25761,7 +25927,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26999,7 +27164,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27417"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sjarvis/git/tb-ucl/project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="993" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -26,8 +31,11 @@
     <sheet name="Epidemic Characteristics" sheetId="17" r:id="rId17"/>
     <sheet name="Cascade Parameters" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -918,6 +926,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1208,16 +1221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>134</v>
       </c>
@@ -1259,7 +1272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>136</v>
       </c>
@@ -1273,7 +1286,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>138</v>
       </c>
@@ -1287,7 +1300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>140</v>
       </c>
@@ -1301,7 +1314,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -1317,11 +1330,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1329,17 +1337,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1398,7 +1406,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1414,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1430,7 +1438,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1446,7 +1454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1462,7 +1470,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1478,7 +1486,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1494,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1553,7 +1561,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1617,7 +1625,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1633,7 +1641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1649,7 +1657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1665,7 +1673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1681,7 +1689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1697,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1756,7 +1764,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1772,7 +1780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1788,7 +1796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1804,7 +1812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1820,7 +1828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1836,7 +1844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -1852,7 +1860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -1927,7 +1935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -1943,7 +1951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -1959,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -1975,7 +1983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -1991,7 +1999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2007,7 +2015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2082,7 +2090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2098,7 +2106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2114,7 +2122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2130,7 +2138,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2146,7 +2154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2162,7 +2170,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -2221,7 +2229,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2237,7 +2245,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2253,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2269,7 +2277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2285,7 +2293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2301,7 +2309,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2317,7 +2325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -2376,7 +2384,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2392,7 +2400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2408,7 +2416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2424,7 +2432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2440,7 +2448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2456,7 +2464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2472,7 +2480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -2531,7 +2539,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2547,7 +2555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2563,7 +2571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2579,7 +2587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2595,7 +2603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2611,7 +2619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2776,11 +2784,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2792,13 +2795,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -2857,7 +2860,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -2873,7 +2876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -2889,7 +2892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -2905,7 +2908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -2921,7 +2924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -2937,7 +2940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -2953,7 +2956,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3028,7 +3031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3044,7 +3047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3060,7 +3063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3076,7 +3079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3092,7 +3095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3108,7 +3111,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>131</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3183,7 +3186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3199,7 +3202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3215,7 +3218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3231,7 +3234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3247,7 +3250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3321,11 +3324,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3333,17 +3331,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -3402,7 +3400,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3418,7 +3416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3434,7 +3432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3450,7 +3448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3466,7 +3464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3482,7 +3480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3498,7 +3496,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -3557,7 +3555,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3582,7 +3580,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3607,7 +3605,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3632,7 +3630,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3657,7 +3655,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3673,7 +3671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3689,7 +3687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -3748,7 +3746,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -3794,7 +3792,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -3840,7 +3838,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -3886,7 +3884,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -3932,7 +3930,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -3948,7 +3946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -3964,7 +3962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -4023,7 +4021,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4072,7 +4070,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4121,7 +4119,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4170,7 +4168,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4219,7 +4217,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4235,7 +4233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4251,7 +4249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -4310,7 +4308,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4326,7 +4324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4342,7 +4340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4358,7 +4356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4374,7 +4372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4390,7 +4388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4406,7 +4404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>73</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4490,7 +4488,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4515,7 +4513,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4540,7 +4538,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4565,7 +4563,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4581,7 +4579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4597,7 +4595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -4656,7 +4654,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4681,7 +4679,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4706,7 +4704,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4731,7 +4729,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4756,7 +4754,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4772,7 +4770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4788,7 +4786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -4847,7 +4845,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -4872,7 +4870,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -4897,7 +4895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -4922,7 +4920,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -4947,7 +4945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -4963,7 +4961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -4979,7 +4977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>97</v>
       </c>
@@ -5038,7 +5036,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5054,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5070,7 +5068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5086,7 +5084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5102,7 +5100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5118,7 +5116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5134,7 +5132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>101</v>
       </c>
@@ -5193,7 +5191,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5209,7 +5207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5225,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5241,7 +5239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5257,7 +5255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5273,7 +5271,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5289,7 +5287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -5348,7 +5346,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5364,7 +5362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5380,7 +5378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5396,7 +5394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5412,7 +5410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5428,7 +5426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5444,7 +5442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>108</v>
       </c>
@@ -5503,7 +5501,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5519,7 +5517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5535,7 +5533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5551,7 +5549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5567,7 +5565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5583,7 +5581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5599,7 +5597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A98" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5674,7 +5672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A99" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5690,7 +5688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A100" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5706,7 +5704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A101" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5722,7 +5720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A102" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5738,7 +5736,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A103" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5754,7 +5752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5813,7 +5811,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A106" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -5838,7 +5836,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A107" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -5863,7 +5861,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A108" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -5888,7 +5886,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A109" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -5913,7 +5911,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A110" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -5929,7 +5927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A111" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -5945,7 +5943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6004,7 +6002,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="114" spans="1:20">
+    <row r="114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A114" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6050,7 +6048,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:20">
+    <row r="115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A115" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6096,7 +6094,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:20">
+    <row r="116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A116" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6142,7 +6140,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:20">
+    <row r="117" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6188,7 +6186,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:20">
+    <row r="118" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A118" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6204,7 +6202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A119" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6220,7 +6218,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:20">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>113</v>
       </c>
@@ -6279,7 +6277,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="122" spans="1:20">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A122" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6328,7 +6326,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="123" spans="1:20">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A123" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6377,7 +6375,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="124" spans="1:20">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A124" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6426,7 +6424,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A125" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6475,7 +6473,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A126" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6491,7 +6489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:20">
+    <row r="127" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A127" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6507,7 +6505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>114</v>
       </c>
@@ -6566,7 +6564,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A130" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6582,7 +6580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A131" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6598,7 +6596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A132" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6614,7 +6612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A133" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6630,7 +6628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6646,7 +6644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A135" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6662,7 +6660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>115</v>
       </c>
@@ -6721,7 +6719,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A138" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6746,7 +6744,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A139" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6771,7 +6769,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A140" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6796,7 +6794,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A141" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -6821,7 +6819,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A142" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -6837,7 +6835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A143" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -6853,7 +6851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>116</v>
       </c>
@@ -6912,7 +6910,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A146" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -6937,7 +6935,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A147" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -6962,7 +6960,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -6987,7 +6985,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A149" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7012,7 +7010,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A150" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7028,7 +7026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A151" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7044,7 +7042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>117</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A154" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7128,7 +7126,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A155" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7153,7 +7151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A156" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7178,7 +7176,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A157" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7203,7 +7201,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A158" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7219,7 +7217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A159" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7235,7 +7233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>118</v>
       </c>
@@ -7294,7 +7292,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A162" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7310,7 +7308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A163" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7326,7 +7324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7342,7 +7340,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A165" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7358,7 +7356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A166" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7374,7 +7372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A167" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7390,7 +7388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>119</v>
       </c>
@@ -7449,7 +7447,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A170" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7465,7 +7463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A171" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7481,7 +7479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A172" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7497,7 +7495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A173" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7513,7 +7511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A174" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7529,7 +7527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A175" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7545,7 +7543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>120</v>
       </c>
@@ -7604,7 +7602,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A178" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7620,7 +7618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A179" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7636,7 +7634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A180" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7652,7 +7650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A181" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7668,7 +7666,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A182" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7684,7 +7682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -7700,7 +7698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>121</v>
       </c>
@@ -7759,7 +7757,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A186" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -7775,7 +7773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A187" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -7791,7 +7789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A188" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -7807,7 +7805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A189" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -7823,7 +7821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A190" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -7839,7 +7837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A191" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8292,11 +8290,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8304,15 +8297,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A71" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -8371,7 +8364,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8387,7 +8380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8403,7 +8396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8419,7 +8412,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8435,7 +8428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8451,7 +8444,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8467,7 +8460,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -8526,7 +8519,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8542,7 +8535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8558,7 +8551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8574,7 +8567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8590,7 +8583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8606,7 +8599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8622,7 +8615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -8681,7 +8674,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8697,7 +8690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8713,7 +8706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8729,7 +8722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8745,7 +8738,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8761,7 +8754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8777,7 +8770,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -8836,7 +8829,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -8852,7 +8845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -8868,7 +8861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -8884,7 +8877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -8900,7 +8893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -8916,7 +8909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -8932,7 +8925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -8991,7 +8984,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9007,7 +9000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9023,7 +9016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9039,7 +9032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9055,7 +9048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9071,7 +9064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9087,7 +9080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -9146,7 +9139,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9162,7 +9155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9178,7 +9171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9194,7 +9187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9210,7 +9203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9226,7 +9219,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9242,7 +9235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -9301,7 +9294,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9317,7 +9310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9333,7 +9326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9349,7 +9342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9365,7 +9358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9381,7 +9374,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9397,7 +9390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>91</v>
       </c>
@@ -9456,7 +9449,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9472,7 +9465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9488,7 +9481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9504,7 +9497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9520,7 +9513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9536,7 +9529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9552,7 +9545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -9611,7 +9604,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9627,7 +9620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9643,7 +9636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9659,7 +9652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9675,7 +9668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9691,7 +9684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -9707,7 +9700,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>102</v>
       </c>
@@ -9766,7 +9759,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -9782,7 +9775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -9798,7 +9791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -9814,7 +9807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -9830,7 +9823,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -9846,7 +9839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10046,11 +10039,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10058,17 +10046,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -10127,7 +10115,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10143,7 +10131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10159,7 +10147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10175,7 +10163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10191,7 +10179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10207,7 +10195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10223,7 +10211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -10282,7 +10270,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10298,7 +10286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10314,7 +10302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10330,7 +10318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10346,7 +10334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10362,7 +10350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10378,7 +10366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -10437,7 +10425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10453,7 +10441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10469,7 +10457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10485,7 +10473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10501,7 +10489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10517,7 +10505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10533,7 +10521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -10592,7 +10580,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10638,7 +10626,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10684,7 +10672,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10730,7 +10718,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10776,7 +10764,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10792,7 +10780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10808,7 +10796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -10867,7 +10855,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -10892,7 +10880,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -10917,7 +10905,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -10942,7 +10930,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -10967,7 +10955,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -10983,7 +10971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -10999,7 +10987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -11058,7 +11046,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11074,7 +11062,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -11090,7 +11078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -11106,7 +11094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -11122,7 +11110,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -11138,7 +11126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -11154,7 +11142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -11213,7 +11201,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11229,7 +11217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -11245,7 +11233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -11261,7 +11249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -11277,7 +11265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -11293,7 +11281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -11309,7 +11297,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -11368,7 +11356,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11384,7 +11372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -11400,7 +11388,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -11416,7 +11404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -11432,7 +11420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -11448,7 +11436,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -11464,7 +11452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>99</v>
       </c>
@@ -11523,7 +11511,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11539,7 +11527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -11555,7 +11543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -11571,7 +11559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -11587,7 +11575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -11603,7 +11591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -11619,7 +11607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>103</v>
       </c>
@@ -11678,7 +11666,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11724,7 +11712,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -11770,7 +11758,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -11816,7 +11804,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -11862,7 +11850,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -11878,7 +11866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -11894,7 +11882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -11953,7 +11941,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -11978,7 +11966,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A83" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -12003,7 +11991,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -12028,7 +12016,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -12053,7 +12041,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -12069,7 +12057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -12085,7 +12073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -12144,7 +12132,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -12160,7 +12148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -12176,7 +12164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -12192,7 +12180,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -12208,7 +12196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -12224,7 +12212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -12460,11 +12448,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12472,17 +12455,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -12541,7 +12524,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -12563,7 +12546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -12585,7 +12568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -12649,7 +12632,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -12713,7 +12696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -12722,14 +12705,14 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -12738,14 +12721,14 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -12804,7 +12787,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -12820,7 +12803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -12836,7 +12819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -12852,7 +12835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -12868,7 +12851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -12884,7 +12867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -12900,7 +12883,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -12959,7 +12942,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -12975,7 +12958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -12991,7 +12974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13007,7 +12990,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13023,7 +13006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13039,7 +13022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13055,7 +13038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -13114,7 +13097,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13130,7 +13113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13146,7 +13129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13162,7 +13145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13178,7 +13161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13194,7 +13177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13210,7 +13193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -13269,7 +13252,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13285,7 +13268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13301,7 +13284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13317,7 +13300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13333,7 +13316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13349,7 +13332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13365,7 +13348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -13424,7 +13407,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13440,7 +13423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13456,7 +13439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13472,7 +13455,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13488,7 +13471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13504,7 +13487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13520,7 +13503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -13579,7 +13562,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13595,7 +13578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13611,7 +13594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13627,7 +13610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13643,7 +13626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13659,7 +13642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13675,7 +13658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -13734,7 +13717,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13750,7 +13733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13766,7 +13749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13782,7 +13765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13798,7 +13781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13814,7 +13797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13830,7 +13813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>104</v>
       </c>
@@ -13889,7 +13872,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13905,7 +13888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13921,7 +13904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13937,7 +13920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13953,7 +13936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13969,7 +13952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13985,7 +13968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>107</v>
       </c>
@@ -14044,7 +14027,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14060,7 +14043,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14076,7 +14059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14092,7 +14075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14108,7 +14091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14124,7 +14107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14324,11 +14307,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14338,18 +14316,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14359,13 +14332,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -14424,7 +14397,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14440,7 +14413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14456,7 +14429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14472,7 +14445,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14488,7 +14461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14504,7 +14477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14520,7 +14493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -14579,7 +14552,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14595,7 +14568,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14611,7 +14584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14627,7 +14600,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14643,7 +14616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14659,7 +14632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14675,7 +14648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>126</v>
       </c>
@@ -14734,7 +14707,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14750,7 +14723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14766,7 +14739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14782,7 +14755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14798,7 +14771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14814,7 +14787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14830,7 +14803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -14889,7 +14862,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -14905,7 +14878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -14921,7 +14894,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -14937,7 +14910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -14953,7 +14926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -14969,7 +14942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -14985,7 +14958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>128</v>
       </c>
@@ -15044,7 +15017,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -15060,7 +15033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -15076,7 +15049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -15092,7 +15065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -15108,7 +15081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -15124,7 +15097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -15234,11 +15207,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15248,18 +15216,13 @@
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15271,12 +15234,12 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -15305,7 +15268,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -15326,7 +15289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -15347,7 +15310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -15368,7 +15331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -15389,7 +15352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -15410,7 +15373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -15431,7 +15394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -15460,7 +15423,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -15481,7 +15444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -15502,7 +15465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -15523,7 +15486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -15544,7 +15507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -15565,7 +15528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -15586,7 +15549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -15615,7 +15578,7 @@
         <v>Pris</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$B$2</f>
         <v>0-4</v>
@@ -15636,7 +15599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$B$3</f>
         <v>5-14</v>
@@ -15657,7 +15620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$B$4</f>
         <v>15-64</v>
@@ -15678,7 +15641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$B$5</f>
         <v>65+</v>
@@ -15699,7 +15662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$B$6</f>
         <v>HIV 15+</v>
@@ -15720,7 +15683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$B$7</f>
         <v>Pris</v>
@@ -16069,11 +16032,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16083,14 +16041,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
     <col min="4" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>'Transfer Definitions'!A9</f>
         <v>Migration Type 1</v>
@@ -16150,7 +16108,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>IF('Transfer Definitions'!C10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -16176,7 +16134,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>IF('Transfer Definitions'!D10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -16202,7 +16160,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>IF('Transfer Definitions'!E10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -16228,7 +16186,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>IF('Transfer Definitions'!F10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -16254,7 +16212,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>IF('Transfer Definitions'!G10="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -16280,7 +16238,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>IF('Transfer Definitions'!B11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -16306,7 +16264,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="str">
         <f>IF('Transfer Definitions'!D11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -16332,7 +16290,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="str">
         <f>IF('Transfer Definitions'!E11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -16358,7 +16316,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>IF('Transfer Definitions'!F11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -16384,7 +16342,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>IF('Transfer Definitions'!G11="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -16410,7 +16368,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>IF('Transfer Definitions'!B12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -16436,7 +16394,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>IF('Transfer Definitions'!C12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -16462,7 +16420,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>IF('Transfer Definitions'!E12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -16488,7 +16446,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>IF('Transfer Definitions'!F12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -16514,7 +16472,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f>IF('Transfer Definitions'!G12="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -16540,7 +16498,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>IF('Transfer Definitions'!B13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -16566,7 +16524,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>IF('Transfer Definitions'!C13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -16592,7 +16550,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>IF('Transfer Definitions'!D13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -16618,7 +16576,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>IF('Transfer Definitions'!F13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -16644,7 +16602,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>IF('Transfer Definitions'!G13="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -16670,7 +16628,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>IF('Transfer Definitions'!B14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -16696,7 +16654,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>IF('Transfer Definitions'!C14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -16722,7 +16680,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>IF('Transfer Definitions'!D14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -16748,7 +16706,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>IF('Transfer Definitions'!E14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -16774,7 +16732,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>IF('Transfer Definitions'!G14="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -16800,7 +16758,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>IF('Transfer Definitions'!B15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -16826,7 +16784,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>IF('Transfer Definitions'!C15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -16852,7 +16810,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>IF('Transfer Definitions'!D15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -16878,7 +16836,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>IF('Transfer Definitions'!E15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -16904,7 +16862,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>IF('Transfer Definitions'!F15="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -16930,7 +16888,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f>'Transfer Definitions'!A17</f>
         <v>Migration Type 2</v>
@@ -16990,7 +16948,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>IF('Transfer Definitions'!C18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -17016,7 +16974,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>IF('Transfer Definitions'!D18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -17042,7 +17000,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>IF('Transfer Definitions'!E18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -17068,7 +17026,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:22">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>IF('Transfer Definitions'!F18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -17094,7 +17052,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>IF('Transfer Definitions'!G18="y",'Population Definitions'!$A$2,"...")</f>
         <v>...</v>
@@ -17120,7 +17078,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>IF('Transfer Definitions'!B19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -17146,7 +17104,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:22">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>IF('Transfer Definitions'!D19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -17172,7 +17130,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f>IF('Transfer Definitions'!E19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -17198,7 +17156,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>IF('Transfer Definitions'!F19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -17224,7 +17182,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>IF('Transfer Definitions'!G19="y",'Population Definitions'!$A$3,"...")</f>
         <v>...</v>
@@ -17250,7 +17208,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>IF('Transfer Definitions'!B20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -17276,7 +17234,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>IF('Transfer Definitions'!C20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -17302,7 +17260,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>IF('Transfer Definitions'!E20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -17328,7 +17286,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>IF('Transfer Definitions'!F20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -17354,7 +17312,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f>IF('Transfer Definitions'!G20="y",'Population Definitions'!$A$4,"...")</f>
         <v>...</v>
@@ -17380,7 +17338,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="str">
         <f>IF('Transfer Definitions'!B21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -17406,7 +17364,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>IF('Transfer Definitions'!C21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -17432,7 +17390,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>IF('Transfer Definitions'!D21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -17458,7 +17416,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>IF('Transfer Definitions'!F21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -17484,7 +17442,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>IF('Transfer Definitions'!G21="y",'Population Definitions'!$A$5,"...")</f>
         <v>...</v>
@@ -17510,7 +17468,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>IF('Transfer Definitions'!B22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -17536,7 +17494,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>IF('Transfer Definitions'!C22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -17562,7 +17520,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="str">
         <f>IF('Transfer Definitions'!D22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -17588,7 +17546,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>IF('Transfer Definitions'!E22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -17614,7 +17572,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>IF('Transfer Definitions'!G22="y",'Population Definitions'!$A$6,"...")</f>
         <v>...</v>
@@ -17640,7 +17598,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>IF('Transfer Definitions'!B23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -17666,7 +17624,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>IF('Transfer Definitions'!C23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -17692,7 +17650,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>IF('Transfer Definitions'!D23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -17718,7 +17676,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>IF('Transfer Definitions'!E23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -17744,7 +17702,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>IF('Transfer Definitions'!F23="y",'Population Definitions'!$A$7,"...")</f>
         <v>...</v>
@@ -17954,11 +17912,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -17966,11 +17919,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
@@ -17978,7 +17931,7 @@
     <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -18037,7 +17990,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18101,7 +18054,7 @@
         <v>586330</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18165,7 +18118,7 @@
         <v>939479</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18229,7 +18182,7 @@
         <v>6642412.9999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18293,7 +18246,7 @@
         <v>1327603.9999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18309,7 +18262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18325,7 +18278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -18384,7 +18337,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18445,7 +18398,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18461,7 +18414,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18477,7 +18430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18493,7 +18446,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18509,7 +18462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18525,7 +18478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -18584,7 +18537,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -18648,7 +18601,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -18712,7 +18665,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -18776,7 +18729,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -18840,7 +18793,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -18856,7 +18809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -18931,11 +18884,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -18947,13 +18895,13 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -19012,7 +18960,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19028,7 +18976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19044,7 +18992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19060,7 +19008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19076,7 +19024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19092,7 +19040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19108,7 +19056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -19167,7 +19115,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19183,7 +19131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19199,7 +19147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19215,7 +19163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19231,7 +19179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19247,7 +19195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19263,7 +19211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -19322,7 +19270,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19338,7 +19286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19354,7 +19302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19370,7 +19318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19386,7 +19334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19402,7 +19350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19418,7 +19366,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -19477,7 +19425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19493,7 +19441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19509,7 +19457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19525,7 +19473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19541,7 +19489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19557,7 +19505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19573,7 +19521,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -19632,7 +19580,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19648,7 +19596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19664,7 +19612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19680,7 +19628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19696,7 +19644,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19712,7 +19660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19728,7 +19676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -19787,7 +19735,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19803,7 +19751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19819,7 +19767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19835,7 +19783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -19851,7 +19799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -19867,7 +19815,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -19883,7 +19831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>76</v>
       </c>
@@ -19942,7 +19890,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -19958,7 +19906,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -19974,7 +19922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -19990,7 +19938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20006,7 +19954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20022,7 +19970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20038,7 +19986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -20097,7 +20045,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20113,7 +20061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20129,7 +20077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20145,7 +20093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20161,7 +20109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20177,7 +20125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20193,7 +20141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>93</v>
       </c>
@@ -20252,7 +20200,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20268,7 +20216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20284,7 +20232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20300,7 +20248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20316,7 +20264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20332,7 +20280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20514,11 +20462,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -20530,13 +20473,13 @@
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -20595,7 +20538,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20617,7 +20560,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20639,7 +20582,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20661,7 +20604,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20683,7 +20626,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20699,7 +20642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20715,7 +20658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -20774,7 +20717,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20796,7 +20739,7 @@
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20818,7 +20761,7 @@
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -20840,7 +20783,7 @@
         <v>6.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -20862,7 +20805,7 @@
         <v>6.3299999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -20878,7 +20821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -20894,7 +20837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -20953,7 +20896,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -20969,7 +20912,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -20985,7 +20928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21001,7 +20944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21017,7 +20960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21033,7 +20976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21049,7 +20992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -21108,7 +21051,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21124,7 +21067,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21140,7 +21083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21156,7 +21099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21172,7 +21115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21188,7 +21131,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21204,7 +21147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -21263,7 +21206,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21279,7 +21222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21295,7 +21238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21311,7 +21254,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21327,7 +21270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21343,7 +21286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21359,7 +21302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -21418,7 +21361,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21440,7 +21383,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21462,7 +21405,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21484,7 +21427,7 @@
         <v>3.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21506,7 +21449,7 @@
         <v>3.1670000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21522,7 +21465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21538,7 +21481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -21597,7 +21540,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21613,7 +21556,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21629,7 +21572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21645,7 +21588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21661,7 +21604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21677,7 +21620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21693,7 +21636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>86</v>
       </c>
@@ -21752,7 +21695,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21768,7 +21711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21784,7 +21727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21800,7 +21743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21816,7 +21759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21832,7 +21775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -21848,7 +21791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -21907,7 +21850,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -21923,7 +21866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -21939,7 +21882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -21955,7 +21898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -21971,7 +21914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -21987,7 +21930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22003,7 +21946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>122</v>
       </c>
@@ -22062,7 +22005,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22078,7 +22021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22094,7 +22037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22110,7 +22053,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22126,7 +22069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22142,7 +22085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22343,11 +22286,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -22359,13 +22297,13 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -22424,7 +22362,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22479,7 +22417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22534,7 +22472,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22589,7 +22527,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22623,7 +22561,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22639,7 +22577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22655,7 +22593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -22714,7 +22652,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22748,7 +22686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -22782,7 +22720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -22816,7 +22754,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -22850,7 +22788,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -22866,7 +22804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -22882,7 +22820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -22941,7 +22879,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -22975,7 +22913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23009,7 +22947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23043,7 +22981,7 @@
         <v>1834.5161619598503</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23077,7 +23015,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23093,7 +23031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23109,7 +23047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -23168,7 +23106,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23202,7 +23140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23236,7 +23174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23258,7 +23196,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23280,7 +23218,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23296,7 +23234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23312,7 +23250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -23371,7 +23309,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23393,7 +23331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23427,7 +23365,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23449,7 +23387,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23471,7 +23409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23487,7 +23425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23503,7 +23441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -23562,7 +23500,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23596,7 +23534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23630,7 +23568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23664,7 +23602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23698,7 +23636,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23714,7 +23652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23730,7 +23668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>79</v>
       </c>
@@ -23789,7 +23727,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -23823,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -23857,7 +23795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -23891,7 +23829,7 @@
         <v>15.483838040149749</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -23925,7 +23863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -23941,7 +23879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -23957,7 +23895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>88</v>
       </c>
@@ -24016,7 +23954,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -24050,7 +23988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -24084,7 +24022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -24106,7 +24044,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -24128,7 +24066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -24144,7 +24082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -24160,7 +24098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -24219,7 +24157,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -24241,7 +24179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -24275,7 +24213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -24297,7 +24235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -24319,7 +24257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -24335,7 +24273,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -24517,11 +24455,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -24529,17 +24462,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -24598,7 +24531,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -24614,7 +24547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -24630,7 +24563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -24646,7 +24579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -24662,7 +24595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -24678,7 +24611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -24694,7 +24627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -24753,7 +24686,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -24769,7 +24702,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -24785,7 +24718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -24801,7 +24734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -24817,7 +24750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -24833,7 +24766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -24849,7 +24782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -24908,7 +24841,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -24924,7 +24857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -24940,7 +24873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -24956,7 +24889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -24972,7 +24905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -24988,7 +24921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25004,7 +24937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -25063,7 +24996,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -25079,7 +25012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -25095,7 +25028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -25111,7 +25044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -25127,7 +25060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -25143,7 +25076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25159,7 +25092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -25218,7 +25151,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -25234,7 +25167,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -25250,7 +25183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -25266,7 +25199,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -25282,7 +25215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -25298,7 +25231,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25314,7 +25247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>72</v>
       </c>
@@ -25373,7 +25306,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -25389,7 +25322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -25405,7 +25338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -25421,7 +25354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -25437,7 +25370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -25453,7 +25386,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25469,7 +25402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -25528,7 +25461,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -25544,7 +25477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -25560,7 +25493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -25576,7 +25509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -25592,7 +25525,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -25608,7 +25541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25624,7 +25557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -25683,7 +25616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -25699,7 +25632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -25715,7 +25648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -25731,7 +25664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -25747,7 +25680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -25763,7 +25696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -25927,11 +25860,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -25939,17 +25867,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -26008,7 +25936,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26024,7 +25952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26040,7 +25968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26056,7 +25984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26072,7 +26000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26088,7 +26016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26104,7 +26032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -26163,7 +26091,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26179,7 +26107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26195,7 +26123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26211,7 +26139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26227,7 +26155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26243,7 +26171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26259,7 +26187,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -26318,7 +26246,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26334,7 +26262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26350,7 +26278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26366,7 +26294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26382,7 +26310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26398,7 +26326,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26414,7 +26342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -26473,7 +26401,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26489,7 +26417,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26505,7 +26433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26521,7 +26449,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26537,7 +26465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26553,7 +26481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26569,7 +26497,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -26628,7 +26556,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26644,7 +26572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26660,7 +26588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26676,7 +26604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26692,7 +26620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26708,7 +26636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26724,7 +26652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>71</v>
       </c>
@@ -26783,7 +26711,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26799,7 +26727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26815,7 +26743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26831,7 +26759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -26847,7 +26775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -26863,7 +26791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -26879,7 +26807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -26938,7 +26866,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -26954,7 +26882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -26970,7 +26898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -26986,7 +26914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -27002,7 +26930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -27018,7 +26946,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -27165,10 +27093,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="993" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -44,39 +44,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>G</author>
-  </authors>
-  <commentList>
-    <comment ref="S10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>G:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WB, 2000-14 crude Birth rates per 1000</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -281,7 +248,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -312,7 +279,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -346,7 +313,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -847,12 +814,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -883,26 +859,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -910,18 +894,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6925,13 +6926,13 @@
       <c r="D146" t="s">
         <v>12</v>
       </c>
-      <c r="N146" s="3">
+      <c r="N146" s="2">
         <v>0.23</v>
       </c>
-      <c r="O146" s="3">
+      <c r="O146" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P146" s="3">
+      <c r="P146" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -6950,13 +6951,13 @@
       <c r="D147" t="s">
         <v>12</v>
       </c>
-      <c r="N147" s="3">
+      <c r="N147" s="2">
         <v>0.23</v>
       </c>
-      <c r="O147" s="3">
+      <c r="O147" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P147" s="3">
+      <c r="P147" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -6975,13 +6976,13 @@
       <c r="D148" t="s">
         <v>12</v>
       </c>
-      <c r="N148" s="3">
+      <c r="N148" s="2">
         <v>0.23</v>
       </c>
-      <c r="O148" s="3">
+      <c r="O148" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P148" s="3">
+      <c r="P148" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -7000,13 +7001,13 @@
       <c r="D149" t="s">
         <v>12</v>
       </c>
-      <c r="N149" s="3">
+      <c r="N149" s="2">
         <v>0.23</v>
       </c>
-      <c r="O149" s="3">
+      <c r="O149" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="P149" s="3">
+      <c r="P149" s="2">
         <v>0.34</v>
       </c>
     </row>
@@ -12455,7 +12456,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -17916,18 +17917,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.5" customWidth="1"/>
     <col min="25" max="25" width="9.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -18337,13 +18338,13 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="0">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
@@ -18352,50 +18353,53 @@
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="F10">
-        <v>9.1999999999999998E-3</v>
-      </c>
-      <c r="G10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H10">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="I10">
-        <v>9.1000000000000004E-3</v>
-      </c>
-      <c r="J10">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="K10">
-        <v>1.01E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="M10">
-        <v>1.1299999999999999E-2</v>
-      </c>
-      <c r="N10">
-        <v>1.15E-2</v>
-      </c>
-      <c r="O10">
-        <v>1.14E-2</v>
-      </c>
-      <c r="P10">
-        <v>1.15E-2</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1.2200000000000001E-2</v>
-      </c>
-      <c r="R10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="S10">
-        <v>1.2500000000000001E-2</v>
+      <c r="E10" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="F10" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="G10" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="H10" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="I10" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="J10" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="K10" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="L10" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="M10" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="O10" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="S10" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="T10" s="4">
+        <v>109426.4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -18404,7 +18408,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -18420,7 +18424,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -18436,7 +18440,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -18452,7 +18456,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -18468,7 +18472,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -18579,22 +18583,22 @@
       <c r="M18">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="2">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="Q18">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="T18">
@@ -18789,7 +18793,7 @@
       <c r="S21">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -18826,7 +18830,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="13">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Number"</formula1>
     </dataValidation>
@@ -18845,22 +18849,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10:B15">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
@@ -18883,7 +18872,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="993" activeTab="3"/>
+    <workbookView xWindow="-6140" yWindow="-23540" windowWidth="36540" windowHeight="21620" tabRatio="993" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1898" uniqueCount="146">
   <si>
     <t>Name</t>
   </si>
@@ -809,6 +809,9 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>Number of vaccinated people</t>
+  </si>
 </sst>
 </file>
 
@@ -1336,10 +1339,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T63"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2636,6 +2639,165 @@
         <v>12</v>
       </c>
     </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>2000</v>
+      </c>
+      <c r="F65">
+        <v>2001</v>
+      </c>
+      <c r="G65">
+        <v>2002</v>
+      </c>
+      <c r="H65">
+        <v>2003</v>
+      </c>
+      <c r="I65">
+        <v>2004</v>
+      </c>
+      <c r="J65">
+        <v>2005</v>
+      </c>
+      <c r="K65">
+        <v>2006</v>
+      </c>
+      <c r="L65">
+        <v>2007</v>
+      </c>
+      <c r="M65">
+        <v>2008</v>
+      </c>
+      <c r="N65">
+        <v>2009</v>
+      </c>
+      <c r="O65">
+        <v>2010</v>
+      </c>
+      <c r="P65">
+        <v>2011</v>
+      </c>
+      <c r="Q65">
+        <v>2012</v>
+      </c>
+      <c r="R65">
+        <v>2013</v>
+      </c>
+      <c r="S65">
+        <v>2014</v>
+      </c>
+      <c r="T65">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A66" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <f>414713.321*E10</f>
+        <v>410566.18779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A67" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A68" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A69" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A70" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A71" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="48">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
@@ -2656,7 +2818,7 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Fraction"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 B66:B71">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
@@ -2793,7 +2955,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -15215,7 +15377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -17920,8 +18082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18879,14 +19041,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66:N69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
@@ -18956,12 +19119,64 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="H2">
+        <f>'Notified Cases'!H2/'General Demographics'!$H$2</f>
+        <v>5.3819502842342493E-5</v>
+      </c>
+      <c r="I2">
+        <f>'Notified Cases'!I2/'General Demographics'!I2</f>
+        <v>6.2895483430409514E-5</v>
+      </c>
+      <c r="J2">
+        <f>'Notified Cases'!J2/'General Demographics'!J2</f>
+        <v>7.7886819324832541E-5</v>
+      </c>
+      <c r="K2">
+        <f>'Notified Cases'!K2/'General Demographics'!K2</f>
+        <v>5.6221078579769064E-5</v>
+      </c>
+      <c r="L2">
+        <f>'Notified Cases'!L2/'General Demographics'!L2</f>
+        <v>2.3265946691370873E-5</v>
+      </c>
+      <c r="M2">
+        <f>'Notified Cases'!M2/'General Demographics'!M2</f>
+        <v>2.279490388839615E-5</v>
+      </c>
+      <c r="N2">
+        <f>'Notified Cases'!N2/'General Demographics'!N2</f>
+        <v>7.6895680891018591E-5</v>
+      </c>
+      <c r="O2">
+        <f>'Notified Cases'!O2/'General Demographics'!O2</f>
+        <v>1.3741899640943794E-5</v>
+      </c>
+      <c r="P2">
+        <f>'Notified Cases'!P2/'General Demographics'!P2</f>
+        <v>9.4942417423832448E-6</v>
+      </c>
+      <c r="Q2">
+        <f>'Notified Cases'!Q2/'General Demographics'!Q2</f>
+        <v>3.6632787443745776E-6</v>
+      </c>
+      <c r="R2">
+        <f>'Notified Cases'!R2/'General Demographics'!R2</f>
+        <v>3.540255358619017E-6</v>
+      </c>
+      <c r="S2">
+        <f>'Notified Cases'!S2/'General Demographics'!S2</f>
+        <v>1.0360564927070256E-5</v>
+      </c>
+      <c r="T2">
+        <f>'Notified Cases'!T2/'General Demographics'!T2</f>
+        <v>5.1165725785820274E-6</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -18972,12 +19187,64 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="H3">
+        <f>'Notified Cases'!H3/'General Demographics'!H3</f>
+        <v>9.1130296735576503E-5</v>
+      </c>
+      <c r="I3">
+        <f>'Notified Cases'!I3/'General Demographics'!I3</f>
+        <v>1.0344387135540256E-4</v>
+      </c>
+      <c r="J3">
+        <f>'Notified Cases'!J3/'General Demographics'!J3</f>
+        <v>1.1739967298510444E-4</v>
+      </c>
+      <c r="K3">
+        <f>'Notified Cases'!K3/'General Demographics'!K3</f>
+        <v>9.3370403370075577E-5</v>
+      </c>
+      <c r="L3">
+        <f>'Notified Cases'!L3/'General Demographics'!L3</f>
+        <v>5.2756201181118247E-5</v>
+      </c>
+      <c r="M3">
+        <f>'Notified Cases'!M3/'General Demographics'!M3</f>
+        <v>7.7967712822484613E-5</v>
+      </c>
+      <c r="N3">
+        <f>'Notified Cases'!N3/'General Demographics'!N3</f>
+        <v>4.7019869722156312E-5</v>
+      </c>
+      <c r="O3">
+        <f>'Notified Cases'!O3/'General Demographics'!O3</f>
+        <v>2.1115592309034472E-5</v>
+      </c>
+      <c r="P3">
+        <f>'Notified Cases'!P3/'General Demographics'!P3</f>
+        <v>1.9116803670426305E-5</v>
+      </c>
+      <c r="Q3">
+        <f>'Notified Cases'!Q3/'General Demographics'!Q3</f>
+        <v>1.4606298460608498E-5</v>
+      </c>
+      <c r="R3">
+        <f>'Notified Cases'!R3/'General Demographics'!R3</f>
+        <v>1.2206597777067576E-5</v>
+      </c>
+      <c r="S3">
+        <f>'Notified Cases'!S3/'General Demographics'!S3</f>
+        <v>1.5233601843701069E-5</v>
+      </c>
+      <c r="T3">
+        <f>'Notified Cases'!T3/'General Demographics'!T3</f>
+        <v>9.5797777278683184E-6</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -18988,12 +19255,64 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="H4">
+        <f>'Notified Cases'!H4/'General Demographics'!H4</f>
+        <v>6.22068585402659E-4</v>
+      </c>
+      <c r="I4">
+        <f>'Notified Cases'!I4/'General Demographics'!I4</f>
+        <v>6.7059688957763896E-4</v>
+      </c>
+      <c r="J4">
+        <f>'Notified Cases'!J4/'General Demographics'!J4</f>
+        <v>6.4033404175879271E-4</v>
+      </c>
+      <c r="K4">
+        <f>'Notified Cases'!K4/'General Demographics'!K4</f>
+        <v>6.5107555218509776E-4</v>
+      </c>
+      <c r="L4">
+        <f>'Notified Cases'!L4/'General Demographics'!L4</f>
+        <v>6.0321266354047235E-4</v>
+      </c>
+      <c r="M4">
+        <f>'Notified Cases'!M4/'General Demographics'!M4</f>
+        <v>5.4323936521610415E-4</v>
+      </c>
+      <c r="N4">
+        <f>'Notified Cases'!N4/'General Demographics'!N4</f>
+        <v>5.7300714054983745E-4</v>
+      </c>
+      <c r="O4">
+        <f>'Notified Cases'!O4/'General Demographics'!O4</f>
+        <v>5.3580489184983202E-4</v>
+      </c>
+      <c r="P4">
+        <f>'Notified Cases'!P4/'General Demographics'!P4</f>
+        <v>5.0973145247666034E-4</v>
+      </c>
+      <c r="Q4">
+        <f>'Notified Cases'!Q4/'General Demographics'!Q4</f>
+        <v>4.7789128315296433E-4</v>
+      </c>
+      <c r="R4">
+        <f>'Notified Cases'!R4/'General Demographics'!R4</f>
+        <v>4.4513179810863005E-4</v>
+      </c>
+      <c r="S4">
+        <f>'Notified Cases'!S4/'General Demographics'!S4</f>
+        <v>3.9989913372168547E-4</v>
+      </c>
+      <c r="T4">
+        <f>'Notified Cases'!T4/'General Demographics'!T4</f>
+        <v>3.6236831404491113E-4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -19004,12 +19323,36 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="O5">
+        <f>'Notified Cases'!O5/'General Demographics'!O5</f>
+        <v>4.0923790388647637E-4</v>
+      </c>
+      <c r="P5">
+        <f>'Notified Cases'!P5/'General Demographics'!P5</f>
+        <v>3.3921481569705245E-4</v>
+      </c>
+      <c r="Q5">
+        <f>'Notified Cases'!Q5/'General Demographics'!Q5</f>
+        <v>3.9348366967534976E-4</v>
+      </c>
+      <c r="R5">
+        <f>'Notified Cases'!R5/'General Demographics'!R5</f>
+        <v>3.9491945523682001E-4</v>
+      </c>
+      <c r="S5">
+        <f>'Notified Cases'!S5/'General Demographics'!S5</f>
+        <v>3.5325176155129458E-4</v>
+      </c>
+      <c r="T5">
+        <f>'Notified Cases'!T5/'General Demographics'!T5</f>
+        <v>4.0072190201294978E-4</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -19111,12 +19454,36 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
+      </c>
+      <c r="O10">
+        <f>'Notified Cases'!O10/'General Demographics'!O2</f>
+        <v>1.1778771120808966E-5</v>
+      </c>
+      <c r="P10">
+        <f>'Notified Cases'!P10/'General Demographics'!P2</f>
+        <v>9.4942417423832448E-6</v>
+      </c>
+      <c r="Q10">
+        <f>'Notified Cases'!Q10/'General Demographics'!Q2</f>
+        <v>1.8316393721872888E-6</v>
+      </c>
+      <c r="R10">
+        <f>'Notified Cases'!R10/'General Demographics'!R2</f>
+        <v>3.540255358619017E-6</v>
+      </c>
+      <c r="S10">
+        <f>'Notified Cases'!S10/'General Demographics'!S2</f>
+        <v>1.0360564927070256E-5</v>
+      </c>
+      <c r="T10">
+        <f>'Notified Cases'!T10/'General Demographics'!T2</f>
+        <v>5.1165725785820274E-6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -19127,12 +19494,36 @@
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
+      </c>
+      <c r="O11">
+        <f>'Notified Cases'!O11/'General Demographics'!O3</f>
+        <v>3.3340408909001801E-6</v>
+      </c>
+      <c r="P11">
+        <f>'Notified Cases'!P11/'General Demographics'!P3</f>
+        <v>4.498071451865013E-6</v>
+      </c>
+      <c r="Q11">
+        <f>'Notified Cases'!Q11/'General Demographics'!Q3</f>
+        <v>1.2359175620514884E-5</v>
+      </c>
+      <c r="R11">
+        <f>'Notified Cases'!R11/'General Demographics'!R3</f>
+        <v>3.3290721210184298E-6</v>
+      </c>
+      <c r="S11">
+        <f>'Notified Cases'!S11/'General Demographics'!S3</f>
+        <v>7.6168009218505345E-6</v>
+      </c>
+      <c r="T11">
+        <f>'Notified Cases'!T11/'General Demographics'!T3</f>
+        <v>6.3865184852455453E-6</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -19143,12 +19534,36 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
+      </c>
+      <c r="O12">
+        <f>'Notified Cases'!O12/'General Demographics'!O4</f>
+        <v>3.5527963140885018E-4</v>
+      </c>
+      <c r="P12">
+        <f>'Notified Cases'!P12/'General Demographics'!P4</f>
+        <v>3.902307105638656E-4</v>
+      </c>
+      <c r="Q12">
+        <f>'Notified Cases'!Q12/'General Demographics'!Q4</f>
+        <v>4.3700139427086564E-4</v>
+      </c>
+      <c r="R12">
+        <f>'Notified Cases'!R12/'General Demographics'!R4</f>
+        <v>4.2498671170411613E-4</v>
+      </c>
+      <c r="S12">
+        <f>'Notified Cases'!S12/'General Demographics'!S4</f>
+        <v>3.6393967621205469E-4</v>
+      </c>
+      <c r="T12">
+        <f>'Notified Cases'!T12/'General Demographics'!T4</f>
+        <v>3.5845407384334585E-4</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -19159,12 +19574,36 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
+      </c>
+      <c r="O13">
+        <f>'Notified Cases'!O13/'General Demographics'!O5</f>
+        <v>2.3784121720339492E-4</v>
+      </c>
+      <c r="P13">
+        <f>'Notified Cases'!P13/'General Demographics'!P5</f>
+        <v>1.8543743258105536E-4</v>
+      </c>
+      <c r="Q13">
+        <f>'Notified Cases'!Q13/'General Demographics'!Q5</f>
+        <v>2.5354492673153512E-4</v>
+      </c>
+      <c r="R13">
+        <f>'Notified Cases'!R13/'General Demographics'!R5</f>
+        <v>2.4748285861507388E-4</v>
+      </c>
+      <c r="S13">
+        <f>'Notified Cases'!S13/'General Demographics'!S5</f>
+        <v>2.1993499866306614E-4</v>
+      </c>
+      <c r="T13">
+        <f>'Notified Cases'!T13/'General Demographics'!T5</f>
+        <v>2.6212635695583935E-4</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -19266,12 +19705,36 @@
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
+      </c>
+      <c r="O18">
+        <f>'Notified Cases'!O18/'General Demographics'!O2</f>
+        <v>1.1778771120808966E-5</v>
+      </c>
+      <c r="P18">
+        <f>'Notified Cases'!P18/'General Demographics'!P2</f>
+        <v>5.6965450454299465E-6</v>
+      </c>
+      <c r="Q18">
+        <f>'Notified Cases'!Q18/'General Demographics'!Q2</f>
+        <v>1.8316393721872888E-6</v>
+      </c>
+      <c r="R18">
+        <f>'Notified Cases'!R18/'General Demographics'!R2</f>
+        <v>3.540255358619017E-6</v>
+      </c>
+      <c r="S18">
+        <f>'Notified Cases'!S18/'General Demographics'!S2</f>
+        <v>1.726760821178376E-6</v>
+      </c>
+      <c r="T18">
+        <f>'Notified Cases'!T18/'General Demographics'!T2</f>
+        <v>1.7055241928606758E-6</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -19282,12 +19745,36 @@
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
+      </c>
+      <c r="O19">
+        <f>'Notified Cases'!O19/'General Demographics'!O3</f>
+        <v>3.3340408909001801E-6</v>
+      </c>
+      <c r="P19">
+        <f>'Notified Cases'!P19/'General Demographics'!P3</f>
+        <v>4.498071451865013E-6</v>
+      </c>
+      <c r="Q19">
+        <f>'Notified Cases'!Q19/'General Demographics'!Q3</f>
+        <v>1.2359175620514884E-5</v>
+      </c>
+      <c r="R19">
+        <f>'Notified Cases'!R19/'General Demographics'!R3</f>
+        <v>3.3290721210184298E-6</v>
+      </c>
+      <c r="S19">
+        <f>'Notified Cases'!S19/'General Demographics'!S3</f>
+        <v>4.352457669628877E-6</v>
+      </c>
+      <c r="T19">
+        <f>'Notified Cases'!T19/'General Demographics'!T3</f>
+        <v>2.1288394950818484E-6</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -19298,12 +19785,36 @@
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
+      </c>
+      <c r="O20">
+        <f>'Notified Cases'!O20/'General Demographics'!O4</f>
+        <v>3.0951643777954896E-4</v>
+      </c>
+      <c r="P20">
+        <f>'Notified Cases'!P20/'General Demographics'!P4</f>
+        <v>3.1919641289301725E-4</v>
+      </c>
+      <c r="Q20">
+        <f>'Notified Cases'!Q20/'General Demographics'!Q4</f>
+        <v>3.3656097870499749E-4</v>
+      </c>
+      <c r="R20">
+        <f>'Notified Cases'!R20/'General Demographics'!R4</f>
+        <v>3.234485039842191E-4</v>
+      </c>
+      <c r="S20">
+        <f>'Notified Cases'!S20/'General Demographics'!S4</f>
+        <v>2.8061684034068107E-4</v>
+      </c>
+      <c r="T20">
+        <f>'Notified Cases'!T20/'General Demographics'!T4</f>
+        <v>2.7618218890632822E-4</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -19314,12 +19825,36 @@
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
+      </c>
+      <c r="O21">
+        <f>'Notified Cases'!O21/'General Demographics'!O5</f>
+        <v>2.2160482414707462E-4</v>
+      </c>
+      <c r="P21">
+        <f>'Notified Cases'!P21/'General Demographics'!P5</f>
+        <v>1.677178556899767E-4</v>
+      </c>
+      <c r="Q21">
+        <f>'Notified Cases'!Q21/'General Demographics'!Q5</f>
+        <v>2.0312681510614386E-4</v>
+      </c>
+      <c r="R21">
+        <f>'Notified Cases'!R21/'General Demographics'!R5</f>
+        <v>2.0411443386728954E-4</v>
+      </c>
+      <c r="S21">
+        <f>'Notified Cases'!S21/'General Demographics'!S5</f>
+        <v>1.8227489615226712E-4</v>
+      </c>
+      <c r="T21">
+        <f>'Notified Cases'!T21/'General Demographics'!T5</f>
+        <v>2.0864655424358475E-4</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
@@ -19421,12 +19956,36 @@
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
+      </c>
+      <c r="O26">
+        <f>'Notified Cases'!O26/'General Demographics'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>'Notified Cases'!P26/'General Demographics'!P2</f>
+        <v>3.7976966969532978E-6</v>
+      </c>
+      <c r="Q26">
+        <f>'Notified Cases'!Q26/'General Demographics'!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>'Notified Cases'!R26/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>'Notified Cases'!S26/'General Demographics'!S2</f>
+        <v>3.4535216423567521E-6</v>
+      </c>
+      <c r="T26">
+        <f>'Notified Cases'!T26/'General Demographics'!T2</f>
+        <v>1.7055241928606758E-6</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
@@ -19437,12 +19996,36 @@
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
+      </c>
+      <c r="O27">
+        <f>'Notified Cases'!O27/'General Demographics'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>'Notified Cases'!P27/'General Demographics'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>'Notified Cases'!Q27/'General Demographics'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>'Notified Cases'!R27/'General Demographics'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>'Notified Cases'!S27/'General Demographics'!S3</f>
+        <v>2.1762288348144385E-6</v>
+      </c>
+      <c r="T27">
+        <f>'Notified Cases'!T27/'General Demographics'!T3</f>
+        <v>1.0644197475409242E-6</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
@@ -19453,12 +20036,20 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
+      </c>
+      <c r="S28">
+        <f>'Notified Cases'!S28/'General Demographics'!S4</f>
+        <v>1.0533124428862679E-4</v>
+      </c>
+      <c r="T28">
+        <f>'Notified Cases'!T28/'General Demographics'!T4</f>
+        <v>1.0026476824009589E-4</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
@@ -19469,12 +20060,20 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
+      </c>
+      <c r="S29">
+        <f>'Notified Cases'!S29/'General Demographics'!S5</f>
+        <v>4.7451729163606736E-5</v>
+      </c>
+      <c r="T29">
+        <f>'Notified Cases'!T29/'General Demographics'!T5</f>
+        <v>6.929777252855523E-5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
@@ -19576,12 +20175,36 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
+      </c>
+      <c r="O34">
+        <f>'Notified Cases'!O34/'General Demographics'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>'Notified Cases'!P34/'General Demographics'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>'Notified Cases'!Q34/'General Demographics'!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>'Notified Cases'!R34/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>'Notified Cases'!S34/'General Demographics'!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>'Notified Cases'!T34/'General Demographics'!T2</f>
+        <v>1.7055241928606758E-6</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
@@ -19592,12 +20215,36 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
+      </c>
+      <c r="O35">
+        <f>'Notified Cases'!O35/'General Demographics'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>'Notified Cases'!P35/'General Demographics'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>'Notified Cases'!Q35/'General Demographics'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>'Notified Cases'!R35/'General Demographics'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>'Notified Cases'!S35/'General Demographics'!S3</f>
+        <v>1.0881144174072192E-6</v>
+      </c>
+      <c r="T35">
+        <f>'Notified Cases'!T35/'General Demographics'!T3</f>
+        <v>3.1932592426227727E-6</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
@@ -19608,12 +20255,36 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
+      </c>
+      <c r="O36">
+        <f>'Notified Cases'!O36/'General Demographics'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>'Notified Cases'!P36/'General Demographics'!P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>'Notified Cases'!Q36/'General Demographics'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>'Notified Cases'!R36/'General Demographics'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>'Notified Cases'!S36/'General Demographics'!S4</f>
+        <v>1.8878715192556153E-5</v>
+      </c>
+      <c r="T36">
+        <f>'Notified Cases'!T36/'General Demographics'!T4</f>
+        <v>3.1313921612522439E-5</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
@@ -19624,12 +20295,36 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
+      </c>
+      <c r="O37">
+        <f>'Notified Cases'!O37/'General Demographics'!O5</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>'Notified Cases'!P37/'General Demographics'!P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>'Notified Cases'!Q37/'General Demographics'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>'Notified Cases'!R37/'General Demographics'!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>'Notified Cases'!S37/'General Demographics'!S5</f>
+        <v>2.0336455355831458E-5</v>
+      </c>
+      <c r="T37">
+        <f>'Notified Cases'!T37/'General Demographics'!T5</f>
+        <v>1.5817969816300649E-5</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
@@ -19731,12 +20426,36 @@
       <c r="B42" t="s">
         <v>11</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="str">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
+      </c>
+      <c r="O42">
+        <f>'Notified Cases'!O42/'General Demographics'!O2</f>
+        <v>1.9631285201348277E-6</v>
+      </c>
+      <c r="P42">
+        <f>'Notified Cases'!P42/'General Demographics'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>'Notified Cases'!Q42/'General Demographics'!Q2</f>
+        <v>1.8316393721872888E-6</v>
+      </c>
+      <c r="R42">
+        <f>'Notified Cases'!R42/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>'Notified Cases'!S42/'General Demographics'!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f>'Notified Cases'!T42/'General Demographics'!T2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
@@ -19747,12 +20466,36 @@
       <c r="B43" t="s">
         <v>11</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
+      </c>
+      <c r="O43">
+        <f>'Notified Cases'!O43/'General Demographics'!O3</f>
+        <v>1.7781551418134293E-5</v>
+      </c>
+      <c r="P43">
+        <f>'Notified Cases'!P43/'General Demographics'!P3</f>
+        <v>1.4618732218561292E-5</v>
+      </c>
+      <c r="Q43">
+        <f>'Notified Cases'!Q43/'General Demographics'!Q3</f>
+        <v>2.2471228400936152E-6</v>
+      </c>
+      <c r="R43">
+        <f>'Notified Cases'!R43/'General Demographics'!R3</f>
+        <v>8.8775256560491466E-6</v>
+      </c>
+      <c r="S43">
+        <f>'Notified Cases'!S43/'General Demographics'!S3</f>
+        <v>7.6168009218505345E-6</v>
+      </c>
+      <c r="T43">
+        <f>'Notified Cases'!T43/'General Demographics'!T3</f>
+        <v>3.1932592426227727E-6</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
@@ -19763,12 +20506,36 @@
       <c r="B44" t="s">
         <v>11</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
+      </c>
+      <c r="O44">
+        <f>'Notified Cases'!O44/'General Demographics'!O4</f>
+        <v>1.8052526044098178E-4</v>
+      </c>
+      <c r="P44">
+        <f>'Notified Cases'!P44/'General Demographics'!P4</f>
+        <v>1.195007419127947E-4</v>
+      </c>
+      <c r="Q44">
+        <f>'Notified Cases'!Q44/'General Demographics'!Q4</f>
+        <v>4.0889888882098692E-5</v>
+      </c>
+      <c r="R44">
+        <f>'Notified Cases'!R44/'General Demographics'!R4</f>
+        <v>2.0145086404513933E-5</v>
+      </c>
+      <c r="S44">
+        <f>'Notified Cases'!S44/'General Demographics'!S4</f>
+        <v>3.5959457509630765E-5</v>
+      </c>
+      <c r="T44">
+        <f>'Notified Cases'!T44/'General Demographics'!T4</f>
+        <v>3.9142402015653049E-6</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
@@ -19779,12 +20546,36 @@
       <c r="B45" t="s">
         <v>11</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
+      </c>
+      <c r="O45">
+        <f>'Notified Cases'!O45/'General Demographics'!O5</f>
+        <v>1.7139668668308142E-4</v>
+      </c>
+      <c r="P45">
+        <f>'Notified Cases'!P45/'General Demographics'!P5</f>
+        <v>1.5377738311599711E-4</v>
+      </c>
+      <c r="Q45">
+        <f>'Notified Cases'!Q45/'General Demographics'!Q5</f>
+        <v>1.3993874294381464E-4</v>
+      </c>
+      <c r="R45">
+        <f>'Notified Cases'!R45/'General Demographics'!R5</f>
+        <v>1.4743659662174615E-4</v>
+      </c>
+      <c r="S45">
+        <f>'Notified Cases'!S45/'General Demographics'!S5</f>
+        <v>1.3331676288822844E-4</v>
+      </c>
+      <c r="T45">
+        <f>'Notified Cases'!T45/'General Demographics'!T5</f>
+        <v>1.3859554505711046E-4</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
@@ -19886,12 +20677,36 @@
       <c r="B50" t="s">
         <v>11</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="str">
         <f t="shared" ref="C50:C55" si="6">IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
+      </c>
+      <c r="O50">
+        <f>'Notified Cases'!O50/'General Demographics'!O2</f>
+        <v>1.9631285201348277E-6</v>
+      </c>
+      <c r="P50">
+        <f>'Notified Cases'!P50/'General Demographics'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>'Notified Cases'!Q50/'General Demographics'!Q2</f>
+        <v>1.8316393721872888E-6</v>
+      </c>
+      <c r="R50">
+        <f>'Notified Cases'!R50/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>'Notified Cases'!S50/'General Demographics'!S2</f>
+        <v>5.1802824635351281E-6</v>
+      </c>
+      <c r="T50">
+        <f>'Notified Cases'!T50/'General Demographics'!T2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
@@ -19902,12 +20717,36 @@
       <c r="B51" t="s">
         <v>11</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
+      </c>
+      <c r="O51">
+        <f>'Notified Cases'!O51/'General Demographics'!O3</f>
+        <v>1.7781551418134293E-5</v>
+      </c>
+      <c r="P51">
+        <f>'Notified Cases'!P51/'General Demographics'!P3</f>
+        <v>1.1245178629662533E-5</v>
+      </c>
+      <c r="Q51">
+        <f>'Notified Cases'!Q51/'General Demographics'!Q3</f>
+        <v>2.2471228400936152E-6</v>
+      </c>
+      <c r="R51">
+        <f>'Notified Cases'!R51/'General Demographics'!R3</f>
+        <v>8.8775256560491466E-6</v>
+      </c>
+      <c r="S51">
+        <f>'Notified Cases'!S51/'General Demographics'!S3</f>
+        <v>7.6168009218505345E-6</v>
+      </c>
+      <c r="T51">
+        <f>'Notified Cases'!T51/'General Demographics'!T3</f>
+        <v>3.1932592426227727E-6</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.2">
@@ -19918,12 +20757,36 @@
       <c r="B52" t="s">
         <v>11</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
+      </c>
+      <c r="O52">
+        <f>'Notified Cases'!O52/'General Demographics'!O4</f>
+        <v>1.5674183734301956E-4</v>
+      </c>
+      <c r="P52">
+        <f>'Notified Cases'!P52/'General Demographics'!P4</f>
+        <v>9.6239168793894346E-5</v>
+      </c>
+      <c r="Q52">
+        <f>'Notified Cases'!Q52/'General Demographics'!Q4</f>
+        <v>3.0853259213787463E-5</v>
+      </c>
+      <c r="R52">
+        <f>'Notified Cases'!R52/'General Demographics'!R4</f>
+        <v>1.3795164713569646E-5</v>
+      </c>
+      <c r="S52">
+        <f>'Notified Cases'!S52/'General Demographics'!S4</f>
+        <v>2.6536859220748412E-5</v>
+      </c>
+      <c r="T52">
+        <f>'Notified Cases'!T52/'General Demographics'!T4</f>
+        <v>2.3310562050492421E-6</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
@@ -19934,12 +20797,36 @@
       <c r="B53" t="s">
         <v>11</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
+      </c>
+      <c r="O53">
+        <f>'Notified Cases'!O53/'General Demographics'!O5</f>
+        <v>1.5969617486154264E-4</v>
+      </c>
+      <c r="P53">
+        <f>'Notified Cases'!P53/'General Demographics'!P5</f>
+        <v>1.3908309984046852E-4</v>
+      </c>
+      <c r="Q53">
+        <f>'Notified Cases'!Q53/'General Demographics'!Q5</f>
+        <v>1.1211153593395472E-4</v>
+      </c>
+      <c r="R53">
+        <f>'Notified Cases'!R53/'General Demographics'!R5</f>
+        <v>1.2160008826136394E-4</v>
+      </c>
+      <c r="S53">
+        <f>'Notified Cases'!S53/'General Demographics'!S5</f>
+        <v>1.1072070138174905E-4</v>
+      </c>
+      <c r="T53">
+        <f>'Notified Cases'!T53/'General Demographics'!T5</f>
+        <v>1.1072578871410455E-4</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
@@ -20041,12 +20928,36 @@
       <c r="B58" t="s">
         <v>11</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="str">
         <f t="shared" ref="C58:C63" si="7">IF(SUMPRODUCT(--(E58:T58&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
+      </c>
+      <c r="O58">
+        <f>'Notified Cases'!O58/'General Demographics'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f>'Notified Cases'!P58/'General Demographics'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <f>'Notified Cases'!Q58/'General Demographics'!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <f>'Notified Cases'!R58/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <f>'Notified Cases'!S58/'General Demographics'!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f>'Notified Cases'!T58/'General Demographics'!T2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
@@ -20057,12 +20968,36 @@
       <c r="B59" t="s">
         <v>11</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
+      </c>
+      <c r="O59">
+        <f>'Notified Cases'!O59/'General Demographics'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f>'Notified Cases'!P59/'General Demographics'!P3</f>
+        <v>3.3735535888987595E-6</v>
+      </c>
+      <c r="Q59">
+        <f>'Notified Cases'!Q59/'General Demographics'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <f>'Notified Cases'!R59/'General Demographics'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <f>'Notified Cases'!S59/'General Demographics'!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <f>'Notified Cases'!T59/'General Demographics'!T3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
@@ -20073,12 +21008,36 @@
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
+      </c>
+      <c r="O60">
+        <f>'Notified Cases'!O60/'General Demographics'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f>'Notified Cases'!P60/'General Demographics'!P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f>'Notified Cases'!Q60/'General Demographics'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f>'Notified Cases'!R60/'General Demographics'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <f>'Notified Cases'!S60/'General Demographics'!S4</f>
+        <v>2.6070606694482307E-5</v>
+      </c>
+      <c r="T60">
+        <f>'Notified Cases'!T60/'General Demographics'!T4</f>
+        <v>2.4990918209993871E-5</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
@@ -20089,12 +21048,36 @@
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
+      </c>
+      <c r="O61">
+        <f>'Notified Cases'!O61/'General Demographics'!O5</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f>'Notified Cases'!P61/'General Demographics'!P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f>'Notified Cases'!Q61/'General Demographics'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f>'Notified Cases'!R61/'General Demographics'!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <f>'Notified Cases'!S61/'General Demographics'!S5</f>
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <f>'Notified Cases'!T61/'General Demographics'!T5</f>
+        <v>4.5194199475144716E-6</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
@@ -20196,12 +21179,36 @@
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
         <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
+      </c>
+      <c r="O66">
+        <f>'Notified Cases'!O66/'General Demographics'!O2</f>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f>'Notified Cases'!P66/'General Demographics'!P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f>'Notified Cases'!Q66/'General Demographics'!Q2</f>
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <f>'Notified Cases'!R66/'General Demographics'!R2</f>
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <f>'Notified Cases'!S66/'General Demographics'!S2</f>
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f>'Notified Cases'!T66/'General Demographics'!T2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.2">
@@ -20212,12 +21219,36 @@
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
+      </c>
+      <c r="O67">
+        <f>'Notified Cases'!O67/'General Demographics'!O3</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f>'Notified Cases'!P67/'General Demographics'!P3</f>
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <f>'Notified Cases'!Q67/'General Demographics'!Q3</f>
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <f>'Notified Cases'!R67/'General Demographics'!R3</f>
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <f>'Notified Cases'!S67/'General Demographics'!S3</f>
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f>'Notified Cases'!T67/'General Demographics'!T3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.2">
@@ -20228,12 +21259,36 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
+      </c>
+      <c r="O68">
+        <f>'Notified Cases'!O68/'General Demographics'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f>'Notified Cases'!P68/'General Demographics'!P4</f>
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <f>'Notified Cases'!Q68/'General Demographics'!Q4</f>
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <f>'Notified Cases'!R68/'General Demographics'!R4</f>
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <f>'Notified Cases'!S68/'General Demographics'!S4</f>
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <f>'Notified Cases'!T68/'General Demographics'!T4</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.2">
@@ -20244,12 +21299,36 @@
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>N.A.</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
+      </c>
+      <c r="O69">
+        <f>'Notified Cases'!O69/'General Demographics'!O5</f>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f>'Notified Cases'!P69/'General Demographics'!P5</f>
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <f>'Notified Cases'!Q69/'General Demographics'!Q5</f>
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <f>'Notified Cases'!R69/'General Demographics'!R5</f>
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>'Notified Cases'!S69/'General Demographics'!S5</f>
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <f>'Notified Cases'!T69/'General Demographics'!T5</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.2">
@@ -20458,7 +21537,7 @@
   <dimension ref="A1:T79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22281,8 +23360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -24450,7 +25529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T63"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -25855,8 +26934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -632,8 +632,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -644,9 +648,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1605,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView topLeftCell="A130" workbookViewId="0">
       <selection activeCell="N154" sqref="N154:P157"/>
     </sheetView>
   </sheetViews>
@@ -13170,8 +13178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13592,7 +13600,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
@@ -13656,7 +13664,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
@@ -13672,7 +13680,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
@@ -13688,7 +13696,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
@@ -13704,7 +13712,7 @@
         <v>PLHIV 15+</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
@@ -13720,7 +13728,7 @@
         <v>Prisoners</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
@@ -14078,7 +14086,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="18">
+  <dataValidations count="14">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"Number"</formula1>
     </dataValidation>
@@ -14097,22 +14105,10 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10 B12 B14">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11 B13 B15">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
@@ -14135,6 +14131,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14147,7 +14144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>

--- a/project/databook-belarus.xlsx
+++ b/project/databook-belarus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,19 @@
     <sheet name="Active TB Prevalence" sheetId="5" r:id="rId5"/>
     <sheet name="Latent TB Prevalence" sheetId="6" r:id="rId6"/>
     <sheet name="Notified Cases" sheetId="7" r:id="rId7"/>
-    <sheet name="Infection Susceptibility" sheetId="8" r:id="rId8"/>
-    <sheet name="Latent Testing and Treatment" sheetId="9" r:id="rId9"/>
-    <sheet name="Latent Progression Rates" sheetId="10" r:id="rId10"/>
-    <sheet name="Active TB Testing and Treatment" sheetId="11" r:id="rId11"/>
-    <sheet name="Active TB Progression Rates" sheetId="12" r:id="rId12"/>
-    <sheet name="Active TB Death Rates" sheetId="13" r:id="rId13"/>
-    <sheet name="Epidemic Characteristics" sheetId="14" r:id="rId14"/>
-    <sheet name="Cascade Parameters" sheetId="15" r:id="rId15"/>
+    <sheet name="Disaggregation Ratios" sheetId="17" r:id="rId8"/>
+    <sheet name="Infection Susceptibility" sheetId="8" r:id="rId9"/>
+    <sheet name="Latent Testing and Treatment" sheetId="9" r:id="rId10"/>
+    <sheet name="Latent Progression Rates" sheetId="10" r:id="rId11"/>
+    <sheet name="Active TB Testing and Treatment" sheetId="11" r:id="rId12"/>
+    <sheet name="Active TB Progression Rates" sheetId="12" r:id="rId13"/>
+    <sheet name="Active TB Death Rates" sheetId="13" r:id="rId14"/>
+    <sheet name="Epidemic Characteristics" sheetId="14" r:id="rId15"/>
+    <sheet name="Cascade Parameters" sheetId="15" r:id="rId16"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId17"/>
+  </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,113 +37,6 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>G</author>
-  </authors>
-  <commentList>
-    <comment ref="P2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>G:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-WHO Lower-bound used
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">G: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">WHO Lower-bound used
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>G:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> WHO Best-value used
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="R4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>G:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> WHO Best-value used
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>G</author>
@@ -174,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -562,17 +459,70 @@
   <si>
     <t>y</t>
   </si>
+  <si>
+    <t>SP Proportion of New Active Infections</t>
+  </si>
+  <si>
+    <t>Proportion</t>
+  </si>
+  <si>
+    <t>SN Proportion of New Active Infections</t>
+  </si>
+  <si>
+    <t>DS Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>MDR Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>XDR Proportion of New SP Infections</t>
+  </si>
+  <si>
+    <t>DS Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>MDR Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>XDR Proportion of New SN Infections</t>
+  </si>
+  <si>
+    <t>differences between years</t>
+  </si>
+  <si>
+    <t>Ageing split (0-4 pop)</t>
+  </si>
+  <si>
+    <t>Num of deaths (non-tb 0-4 pop)</t>
+  </si>
+  <si>
+    <t>BR Difference</t>
+  </si>
+  <si>
+    <t>original death rates</t>
+  </si>
+  <si>
+    <t>original birth rates</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -614,16 +564,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="40"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -631,35 +594,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="42">
+    <cellStyle name="Comma" xfId="7" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Population Definitions"/>
+      <sheetName val="Transfer Definitions"/>
+      <sheetName val="Transfer Details"/>
+      <sheetName val="General Demographics"/>
+      <sheetName val="Incidence"/>
+      <sheetName val="Prevalence"/>
+      <sheetName val="Notified Cases"/>
+      <sheetName val="Disaggregation Ratios"/>
+      <sheetName val="Infection Susceptibility"/>
+      <sheetName val="Latent Testing and Treatment"/>
+      <sheetName val="Latent Progression Rates"/>
+      <sheetName val="Active TB Testing and Treatment"/>
+      <sheetName val="Active TB Progression Rates"/>
+      <sheetName val="Active TB Death Rates"/>
+      <sheetName val="Other Epidemiology"/>
+      <sheetName val="Constants"/>
+      <sheetName val="Epidemic Characteristics"/>
+      <sheetName val="Cascade Parameters"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Gen 0-4</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Gen 5-14</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Gen 15-64</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Gen 65+</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>PLHIV 15+</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Prisoners</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,6 +1196,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="60.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>2000</v>
+      </c>
+      <c r="F1">
+        <v>2001</v>
+      </c>
+      <c r="G1">
+        <v>2002</v>
+      </c>
+      <c r="H1">
+        <v>2003</v>
+      </c>
+      <c r="I1">
+        <v>2004</v>
+      </c>
+      <c r="J1">
+        <v>2005</v>
+      </c>
+      <c r="K1">
+        <v>2006</v>
+      </c>
+      <c r="L1">
+        <v>2007</v>
+      </c>
+      <c r="M1">
+        <v>2008</v>
+      </c>
+      <c r="N1">
+        <v>2009</v>
+      </c>
+      <c r="O1">
+        <v>2010</v>
+      </c>
+      <c r="P1">
+        <v>2011</v>
+      </c>
+      <c r="Q1">
+        <v>2012</v>
+      </c>
+      <c r="R1">
+        <v>2013</v>
+      </c>
+      <c r="S1">
+        <v>2014</v>
+      </c>
+      <c r="T1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>E10*'General Demographics'!E2</f>
+        <v>456286.05</v>
+      </c>
+      <c r="F2">
+        <f>F10*'General Demographics'!F2</f>
+        <v>450369.81</v>
+      </c>
+      <c r="G2">
+        <f>G10*'General Demographics'!G2</f>
+        <v>445354.47</v>
+      </c>
+      <c r="H2">
+        <f>H10*'General Demographics'!H2</f>
+        <v>441475.65</v>
+      </c>
+      <c r="I2">
+        <f>I10*'General Demographics'!I2</f>
+        <v>440731.17</v>
+      </c>
+      <c r="J2">
+        <f>J10*'General Demographics'!J2</f>
+        <v>444876.3</v>
+      </c>
+      <c r="K2">
+        <f>K10*'General Demographics'!K2</f>
+        <v>457835.4</v>
+      </c>
+      <c r="L2">
+        <f>L10*'General Demographics'!L2</f>
+        <v>463338.12</v>
+      </c>
+      <c r="M2">
+        <f>M10*'General Demographics'!M2</f>
+        <v>472912.72</v>
+      </c>
+      <c r="N2">
+        <f>N10*'General Demographics'!N2</f>
+        <v>484292.48</v>
+      </c>
+      <c r="O2">
+        <f>O10*'General Demographics'!O2</f>
+        <v>504297.08999999997</v>
+      </c>
+      <c r="P2">
+        <f>P10*'General Demographics'!P2</f>
+        <v>521368.65</v>
+      </c>
+      <c r="Q2">
+        <f>Q10*'General Demographics'!Q2</f>
+        <v>535039.81999999995</v>
+      </c>
+      <c r="R2">
+        <f>R10*'General Demographics'!R2</f>
+        <v>559281.68999999994</v>
+      </c>
+      <c r="S2">
+        <f>S10*'General Demographics'!S2</f>
+        <v>567536.62</v>
+      </c>
+      <c r="T2">
+        <f>T10*'General Demographics'!T2</f>
+        <v>568740.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9">
+        <v>2002</v>
+      </c>
+      <c r="H9">
+        <v>2003</v>
+      </c>
+      <c r="I9">
+        <v>2004</v>
+      </c>
+      <c r="J9">
+        <v>2005</v>
+      </c>
+      <c r="K9">
+        <v>2006</v>
+      </c>
+      <c r="L9">
+        <v>2007</v>
+      </c>
+      <c r="M9">
+        <v>2008</v>
+      </c>
+      <c r="N9">
+        <v>2009</v>
+      </c>
+      <c r="O9">
+        <v>2010</v>
+      </c>
+      <c r="P9">
+        <v>2011</v>
+      </c>
+      <c r="Q9">
+        <v>2012</v>
+      </c>
+      <c r="R9">
+        <v>2013</v>
+      </c>
+      <c r="S9">
+        <v>2014</v>
+      </c>
+      <c r="T9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>0.99</v>
+      </c>
+      <c r="F10">
+        <v>0.99</v>
+      </c>
+      <c r="G10">
+        <v>0.99</v>
+      </c>
+      <c r="H10">
+        <v>0.99</v>
+      </c>
+      <c r="I10">
+        <v>0.99</v>
+      </c>
+      <c r="J10">
+        <v>0.99</v>
+      </c>
+      <c r="K10">
+        <v>0.99</v>
+      </c>
+      <c r="L10">
+        <v>0.98</v>
+      </c>
+      <c r="M10">
+        <v>0.98</v>
+      </c>
+      <c r="N10">
+        <v>0.98</v>
+      </c>
+      <c r="O10">
+        <v>0.99</v>
+      </c>
+      <c r="P10">
+        <v>0.99</v>
+      </c>
+      <c r="Q10">
+        <v>0.98</v>
+      </c>
+      <c r="R10">
+        <v>0.99</v>
+      </c>
+      <c r="S10">
+        <v>0.98</v>
+      </c>
+      <c r="T10">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>2001</v>
+      </c>
+      <c r="G17">
+        <v>2002</v>
+      </c>
+      <c r="H17">
+        <v>2003</v>
+      </c>
+      <c r="I17">
+        <v>2004</v>
+      </c>
+      <c r="J17">
+        <v>2005</v>
+      </c>
+      <c r="K17">
+        <v>2006</v>
+      </c>
+      <c r="L17">
+        <v>2007</v>
+      </c>
+      <c r="M17">
+        <v>2008</v>
+      </c>
+      <c r="N17">
+        <v>2009</v>
+      </c>
+      <c r="O17">
+        <v>2010</v>
+      </c>
+      <c r="P17">
+        <v>2011</v>
+      </c>
+      <c r="Q17">
+        <v>2012</v>
+      </c>
+      <c r="R17">
+        <v>2013</v>
+      </c>
+      <c r="S17">
+        <v>2014</v>
+      </c>
+      <c r="T17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>2001</v>
+      </c>
+      <c r="G25">
+        <v>2002</v>
+      </c>
+      <c r="H25">
+        <v>2003</v>
+      </c>
+      <c r="I25">
+        <v>2004</v>
+      </c>
+      <c r="J25">
+        <v>2005</v>
+      </c>
+      <c r="K25">
+        <v>2006</v>
+      </c>
+      <c r="L25">
+        <v>2007</v>
+      </c>
+      <c r="M25">
+        <v>2008</v>
+      </c>
+      <c r="N25">
+        <v>2009</v>
+      </c>
+      <c r="O25">
+        <v>2010</v>
+      </c>
+      <c r="P25">
+        <v>2011</v>
+      </c>
+      <c r="Q25">
+        <v>2012</v>
+      </c>
+      <c r="R25">
+        <v>2013</v>
+      </c>
+      <c r="S25">
+        <v>2014</v>
+      </c>
+      <c r="T25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+      <c r="F33">
+        <v>2001</v>
+      </c>
+      <c r="G33">
+        <v>2002</v>
+      </c>
+      <c r="H33">
+        <v>2003</v>
+      </c>
+      <c r="I33">
+        <v>2004</v>
+      </c>
+      <c r="J33">
+        <v>2005</v>
+      </c>
+      <c r="K33">
+        <v>2006</v>
+      </c>
+      <c r="L33">
+        <v>2007</v>
+      </c>
+      <c r="M33">
+        <v>2008</v>
+      </c>
+      <c r="N33">
+        <v>2009</v>
+      </c>
+      <c r="O33">
+        <v>2010</v>
+      </c>
+      <c r="P33">
+        <v>2011</v>
+      </c>
+      <c r="Q33">
+        <v>2012</v>
+      </c>
+      <c r="R33">
+        <v>2013</v>
+      </c>
+      <c r="S33">
+        <v>2014</v>
+      </c>
+      <c r="T33">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+      <c r="F41">
+        <v>2001</v>
+      </c>
+      <c r="G41">
+        <v>2002</v>
+      </c>
+      <c r="H41">
+        <v>2003</v>
+      </c>
+      <c r="I41">
+        <v>2004</v>
+      </c>
+      <c r="J41">
+        <v>2005</v>
+      </c>
+      <c r="K41">
+        <v>2006</v>
+      </c>
+      <c r="L41">
+        <v>2007</v>
+      </c>
+      <c r="M41">
+        <v>2008</v>
+      </c>
+      <c r="N41">
+        <v>2009</v>
+      </c>
+      <c r="O41">
+        <v>2010</v>
+      </c>
+      <c r="P41">
+        <v>2011</v>
+      </c>
+      <c r="Q41">
+        <v>2012</v>
+      </c>
+      <c r="R41">
+        <v>2013</v>
+      </c>
+      <c r="S41">
+        <v>2014</v>
+      </c>
+      <c r="T41">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="str">
+        <f>'Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0,"N.A.")</f>
+        <v>0</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="str">
+        <f>'Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="str">
+        <f>'Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="str">
+        <f>'Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="str">
+        <f>'Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="str">
+        <f>'Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="36">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
+      <formula1>"Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B29">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B31">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47">
+      <formula1>"Fraction,Number"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
@@ -1609,12 +2915,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T191"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="N154" sqref="N154:P157"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R162" sqref="R162:R167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1690,12 +2996,18 @@
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
+      </c>
+      <c r="P2">
+        <v>0.7</v>
+      </c>
+      <c r="R2">
+        <v>0.68</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1706,12 +3018,18 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
+      </c>
+      <c r="P3">
+        <v>0.7</v>
+      </c>
+      <c r="R3">
+        <v>0.68</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1722,12 +3040,18 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="str">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
+      </c>
+      <c r="P4">
+        <v>0.7</v>
+      </c>
+      <c r="R4">
+        <v>0.68</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1738,12 +3062,18 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="P5">
+        <v>0.7</v>
+      </c>
+      <c r="R5">
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1754,12 +3084,18 @@
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="str">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="P6">
+        <v>0.7</v>
+      </c>
+      <c r="R6">
+        <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1770,12 +3106,18 @@
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="str">
         <f t="shared" si="0"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="R7">
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2598,12 +3940,18 @@
       <c r="B34" t="s">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
+      </c>
+      <c r="P34">
+        <v>0.7</v>
+      </c>
+      <c r="R34">
+        <v>0.68</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2614,12 +3962,18 @@
       <c r="B35" t="s">
         <v>10</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="str">
         <f t="shared" si="4"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
+      </c>
+      <c r="P35">
+        <v>0.7</v>
+      </c>
+      <c r="R35">
+        <v>0.68</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2630,12 +3984,18 @@
       <c r="B36" t="s">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="str">
         <f t="shared" si="4"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
+      </c>
+      <c r="P36">
+        <v>0.7</v>
+      </c>
+      <c r="R36">
+        <v>0.68</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2646,12 +4006,18 @@
       <c r="B37" t="s">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="str">
         <f t="shared" si="4"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
+      </c>
+      <c r="P37">
+        <v>0.7</v>
+      </c>
+      <c r="R37">
+        <v>0.68</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -2662,12 +4028,18 @@
       <c r="B38" t="s">
         <v>10</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="str">
         <f t="shared" si="4"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
+      </c>
+      <c r="P38">
+        <v>0.7</v>
+      </c>
+      <c r="R38">
+        <v>0.68</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -2678,12 +4050,18 @@
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="str">
         <f t="shared" si="4"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
+      </c>
+      <c r="P39">
+        <v>0.7</v>
+      </c>
+      <c r="R39">
+        <v>0.68</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -3326,12 +4704,18 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="str">
         <f t="shared" ref="C66:C71" si="8">IF(SUMPRODUCT(--(E66:T66&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
+      </c>
+      <c r="P66">
+        <v>0.7</v>
+      </c>
+      <c r="R66">
+        <v>0.68</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -3342,12 +4726,18 @@
       <c r="B67" t="s">
         <v>10</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="str">
         <f t="shared" si="8"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
+      </c>
+      <c r="P67">
+        <v>0.7</v>
+      </c>
+      <c r="R67">
+        <v>0.68</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3358,12 +4748,18 @@
       <c r="B68" t="s">
         <v>10</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="str">
         <f t="shared" si="8"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
+      </c>
+      <c r="P68">
+        <v>0.7</v>
+      </c>
+      <c r="R68">
+        <v>0.68</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3374,12 +4770,18 @@
       <c r="B69" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="str">
         <f t="shared" si="8"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
+      </c>
+      <c r="P69">
+        <v>0.7</v>
+      </c>
+      <c r="R69">
+        <v>0.68</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3390,12 +4792,18 @@
       <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="str">
         <f t="shared" si="8"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
+      </c>
+      <c r="P70">
+        <v>0.7</v>
+      </c>
+      <c r="R70">
+        <v>0.68</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3406,12 +4814,18 @@
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="str">
         <f t="shared" si="8"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
+      </c>
+      <c r="P71">
+        <v>0.7</v>
+      </c>
+      <c r="R71">
+        <v>0.68</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3946,12 +5360,18 @@
       <c r="B98" t="s">
         <v>10</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="str">
         <f t="shared" ref="C98:C103" si="12">IF(SUMPRODUCT(--(E98:T98&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D98" t="s">
         <v>12</v>
+      </c>
+      <c r="P98">
+        <v>0.7</v>
+      </c>
+      <c r="R98">
+        <v>0.68</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -3962,12 +5382,18 @@
       <c r="B99" t="s">
         <v>10</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="str">
         <f t="shared" si="12"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D99" t="s">
         <v>12</v>
+      </c>
+      <c r="P99">
+        <v>0.7</v>
+      </c>
+      <c r="R99">
+        <v>0.68</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -3978,12 +5404,18 @@
       <c r="B100" t="s">
         <v>10</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="str">
         <f t="shared" si="12"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D100" t="s">
         <v>12</v>
+      </c>
+      <c r="P100">
+        <v>0.7</v>
+      </c>
+      <c r="R100">
+        <v>0.68</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -3994,12 +5426,18 @@
       <c r="B101" t="s">
         <v>10</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="str">
         <f t="shared" si="12"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D101" t="s">
         <v>12</v>
+      </c>
+      <c r="P101">
+        <v>0.7</v>
+      </c>
+      <c r="R101">
+        <v>0.68</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -4010,12 +5448,18 @@
       <c r="B102" t="s">
         <v>10</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="str">
         <f t="shared" si="12"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D102" t="s">
         <v>12</v>
+      </c>
+      <c r="P102">
+        <v>0.7</v>
+      </c>
+      <c r="R102">
+        <v>0.68</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -4026,12 +5470,18 @@
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="str">
         <f t="shared" si="12"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D103" t="s">
         <v>12</v>
+      </c>
+      <c r="P103">
+        <v>0.7</v>
+      </c>
+      <c r="R103">
+        <v>0.68</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -4854,12 +6304,18 @@
       <c r="B130" t="s">
         <v>10</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="str">
         <f t="shared" ref="C130:C135" si="16">IF(SUMPRODUCT(--(E130:T130&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D130" t="s">
         <v>12</v>
+      </c>
+      <c r="P130">
+        <v>0.7</v>
+      </c>
+      <c r="R130">
+        <v>0.68</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -4870,12 +6326,18 @@
       <c r="B131" t="s">
         <v>10</v>
       </c>
-      <c r="C131">
+      <c r="C131" t="str">
         <f t="shared" si="16"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D131" t="s">
         <v>12</v>
+      </c>
+      <c r="P131">
+        <v>0.7</v>
+      </c>
+      <c r="R131">
+        <v>0.68</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -4886,12 +6348,18 @@
       <c r="B132" t="s">
         <v>10</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="str">
         <f t="shared" si="16"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D132" t="s">
         <v>12</v>
+      </c>
+      <c r="P132">
+        <v>0.7</v>
+      </c>
+      <c r="R132">
+        <v>0.68</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -4902,12 +6370,18 @@
       <c r="B133" t="s">
         <v>10</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="str">
         <f t="shared" si="16"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D133" t="s">
         <v>12</v>
+      </c>
+      <c r="P133">
+        <v>0.7</v>
+      </c>
+      <c r="R133">
+        <v>0.68</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -4918,12 +6392,18 @@
       <c r="B134" t="s">
         <v>10</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="str">
         <f t="shared" si="16"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D134" t="s">
         <v>12</v>
+      </c>
+      <c r="P134">
+        <v>0.7</v>
+      </c>
+      <c r="R134">
+        <v>0.68</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -4934,12 +6414,18 @@
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="str">
         <f t="shared" si="16"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D135" t="s">
         <v>12</v>
+      </c>
+      <c r="P135">
+        <v>0.7</v>
+      </c>
+      <c r="R135">
+        <v>0.68</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -5582,12 +7068,18 @@
       <c r="B162" t="s">
         <v>10</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="str">
         <f t="shared" ref="C162:C167" si="20">IF(SUMPRODUCT(--(E162:T162&lt;&gt;""))=0,0.59,"N.A.")</f>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D162" t="s">
         <v>12</v>
+      </c>
+      <c r="P162">
+        <v>0.7</v>
+      </c>
+      <c r="R162">
+        <v>0.68</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -5598,12 +7090,18 @@
       <c r="B163" t="s">
         <v>10</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="str">
         <f t="shared" si="20"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D163" t="s">
         <v>12</v>
+      </c>
+      <c r="P163">
+        <v>0.7</v>
+      </c>
+      <c r="R163">
+        <v>0.68</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -5614,12 +7112,18 @@
       <c r="B164" t="s">
         <v>10</v>
       </c>
-      <c r="C164">
+      <c r="C164" t="str">
         <f t="shared" si="20"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D164" t="s">
         <v>12</v>
+      </c>
+      <c r="P164">
+        <v>0.7</v>
+      </c>
+      <c r="R164">
+        <v>0.68</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -5630,12 +7134,18 @@
       <c r="B165" t="s">
         <v>10</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="str">
         <f t="shared" si="20"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D165" t="s">
         <v>12</v>
+      </c>
+      <c r="P165">
+        <v>0.7</v>
+      </c>
+      <c r="R165">
+        <v>0.68</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -5646,12 +7156,18 @@
       <c r="B166" t="s">
         <v>10</v>
       </c>
-      <c r="C166">
+      <c r="C166" t="str">
         <f t="shared" si="20"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D166" t="s">
         <v>12</v>
+      </c>
+      <c r="P166">
+        <v>0.7</v>
+      </c>
+      <c r="R166">
+        <v>0.68</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -5662,12 +7178,18 @@
       <c r="B167" t="s">
         <v>10</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="str">
         <f t="shared" si="20"/>
-        <v>0.59</v>
+        <v>N.A.</v>
       </c>
       <c r="D167" t="s">
         <v>12</v>
+      </c>
+      <c r="P167">
+        <v>0.7</v>
+      </c>
+      <c r="R167">
+        <v>0.68</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -6579,7 +8101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T79"/>
   <sheetViews>
@@ -8333,7 +9855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T95"/>
   <sheetViews>
@@ -10424,27 +11946,6 @@
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="60.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -10475,12 +11976,33 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="60.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10595,7 +12117,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -13176,10 +14698,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:V39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13188,7 +14710,7 @@
     <col min="2" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -13247,7 +14769,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13310,8 +14832,12 @@
       <c r="T2">
         <v>586330</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="V2">
+        <f>(T2+T3)/(T2+T3+T4+T5)</f>
+        <v>0.16068207231261403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13375,7 +14901,7 @@
         <v>939479</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13439,7 +14965,7 @@
         <v>6642412.9999999991</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13503,7 +15029,7 @@
         <v>1327603.9999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13519,7 +15045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13535,7 +15061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -13594,7 +15120,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:22">
       <c r="A10" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>Gen 0-4</v>
@@ -13610,55 +15136,71 @@
         <v>12</v>
       </c>
       <c r="E10">
-        <v>90068.800000000003</v>
+        <f>E26+E28+E30</f>
+        <v>87309.148000000001</v>
       </c>
       <c r="F10">
-        <v>90068.800000000003</v>
+        <f t="shared" ref="F10:S10" si="2">F26+F28+F30</f>
+        <v>87009.60560000001</v>
       </c>
       <c r="G10">
-        <v>90068.800000000003</v>
+        <f t="shared" si="2"/>
+        <v>87177.232500000013</v>
       </c>
       <c r="H10">
-        <v>90068.800000000003</v>
+        <f t="shared" si="2"/>
+        <v>89549.837499999994</v>
       </c>
       <c r="I10">
-        <v>90068.800000000003</v>
+        <f t="shared" si="2"/>
+        <v>94336.55750000001</v>
       </c>
       <c r="J10">
-        <v>102352.40000000001</v>
+        <f t="shared" si="2"/>
+        <v>103772.86599999999</v>
       </c>
       <c r="K10">
-        <v>102352.40000000001</v>
+        <f t="shared" si="2"/>
+        <v>103658.428</v>
       </c>
       <c r="L10">
-        <v>102352.40000000001</v>
+        <f t="shared" si="2"/>
+        <v>105132.54980000001</v>
       </c>
       <c r="M10">
-        <v>102352.40000000001</v>
+        <f t="shared" si="2"/>
+        <v>108945.1588</v>
       </c>
       <c r="N10">
-        <v>102352.40000000001</v>
+        <f t="shared" si="2"/>
+        <v>114890.29919999999</v>
       </c>
       <c r="O10">
-        <v>111124.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>119733.46919999999</v>
       </c>
       <c r="P10">
-        <v>111124.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>125282.962</v>
       </c>
       <c r="Q10">
-        <v>111124.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>128764.35490000001</v>
       </c>
       <c r="R10">
-        <v>111124.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>127795.6241</v>
       </c>
       <c r="S10">
-        <v>111124.59999999999</v>
+        <f t="shared" si="2"/>
+        <v>123671.8309</v>
       </c>
       <c r="T10">
-        <v>109426.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <f>T26+T28+T30</f>
+        <v>117793.697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>Gen 5-14</v>
@@ -13674,7 +15216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:22">
       <c r="A12" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>Gen 15-64</v>
@@ -13690,7 +15232,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:22">
       <c r="A13" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>Gen 65+</v>
@@ -13706,7 +15248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:22">
       <c r="A14" t="str">
         <f>'Population Definitions'!$A$6</f>
         <v>PLHIV 15+</v>
@@ -13722,7 +15264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:22">
       <c r="A15" t="str">
         <f>'Population Definitions'!$A$7</f>
         <v>Prisoners</v>
@@ -13806,58 +15348,58 @@
         <v>10</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
+        <f t="shared" ref="C18:C23" si="3">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
         <v>N.A.</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="5">
         <v>1.8E-3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>1.8E-3</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="5">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="N18" s="2">
+      <c r="N18" s="6">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="P18" s="2">
+      <c r="P18" s="6">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="5">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="R18" s="2">
+      <c r="R18" s="6">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="S18" s="2">
+      <c r="S18" s="6">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="5">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -13870,59 +15412,75 @@
         <v>10</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>N.A.</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
       </c>
-      <c r="E19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="F19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="G19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="N19">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="O19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="Q19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="R19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="S19">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="T19">
-        <v>2.0000000000000001E-4</v>
+      <c r="E19" s="5">
+        <f>E36*100</f>
+        <v>0.03</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" ref="F19:T19" si="4">F36*100</f>
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.03</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="S19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
+      </c>
+      <c r="T19" s="5">
+        <f t="shared" si="4"/>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -13934,58 +15492,58 @@
         <v>10</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>N.A.</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="5">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="5">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="5">
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
@@ -13998,58 +15556,58 @@
         <v>10</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>N.A.</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>7.4499999999999997E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>7.3099999999999998E-2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>7.1400000000000005E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>6.9800000000000001E-2</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>7.2099999999999997E-2</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>7.3400000000000007E-2</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="5">
         <v>6.6900000000000001E-2</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="5">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="5">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="5">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="5">
         <v>6.6799999999999998E-2</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="5">
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
@@ -14062,7 +15620,7 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D22" t="s">
@@ -14078,11 +15636,454 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="B26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26">
+        <f>F2-E2</f>
+        <v>-5976</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:S26" si="5">G2-F2</f>
+        <v>-5066</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>-3918</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>-752</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="5"/>
+        <v>4187</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>13090</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>10334</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>9770</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>11612</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>15215</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>17244</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>19324</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>18972</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>14188</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28">
+        <f>E2/5</f>
+        <v>92179</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:T28" si="6">F2/5</f>
+        <v>90983.8</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="6"/>
+        <v>89970.6</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>89187</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="6"/>
+        <v>89036.6</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>89874</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>92492</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>94558.8</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>96512.8</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>98835.199999999997</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="6"/>
+        <v>101878.2</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>105327</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="6"/>
+        <v>109191.8</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="6"/>
+        <v>112986.2</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="6"/>
+        <v>115823.8</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="6"/>
+        <v>117266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="B30" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30">
+        <f>E18*E2</f>
+        <v>1106.1479999999999</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ref="F30:T30" si="7">F18*F2</f>
+        <v>1091.8055999999999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>1124.6324999999999</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="7"/>
+        <v>1114.8375000000001</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>1112.9575</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="7"/>
+        <v>808.86599999999999</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>832.428</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="7"/>
+        <v>803.74979999999994</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="7"/>
+        <v>820.35879999999997</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="7"/>
+        <v>840.0992</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>611.26919999999996</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>631.96199999999999</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>600.55490000000009</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="7"/>
+        <v>621.42410000000007</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="7"/>
+        <v>637.03090000000009</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="7"/>
+        <v>527.697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32">
+        <f>F2-(E2+E10-E30-E28)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>G2-(F2+F10-F30-F28)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>H2-(G2+G10-G30-G28)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>I2-(H2+H10-H30-H28)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" ref="I32:S32" si="8">J2-(I2+I10-I30-I28)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T32" t="e">
+        <f ca="1">U2-V26(T2+T10-T30-T28)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="5">
+        <f>0.03%</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="F36" s="5">
+        <f t="shared" ref="F36:I36" si="9">0.03%</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I36" s="5">
+        <f t="shared" si="9"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="L36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="N36" s="5">
+        <f t="shared" ref="N36" si="10">0.03%</f>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="O36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="Q36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="R36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="S36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="T36" s="5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F37" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="G37" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H37" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I37" s="5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="K37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="L37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="M37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="N37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="O37" s="5">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="P37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="Q37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="R37" s="5">
+        <v>6.6E-3</v>
+      </c>
+      <c r="S37" s="5">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="T37" s="5">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="F39" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="G39" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="H39" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="I39" s="4">
+        <v>90068.800000000003</v>
+      </c>
+      <c r="J39" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="K39" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="L39" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="M39" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="N39" s="4">
+        <v>102352.40000000001</v>
+      </c>
+      <c r="O39" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="P39" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="R39" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="S39" s="4">
+        <v>111124.59999999999</v>
+      </c>
+      <c r="T39" s="4">
+        <v>109426.4</v>
+      </c>
+      <c r="U39" s="4">
+        <v>109426.4</v>
       </c>
     </row>
   </sheetData>
@@ -14131,7 +16132,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14141,11 +16141,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T175"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -14221,20 +16221,12 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
-      </c>
-      <c r="P2">
-        <f>'General Demographics'!P2*0.0042</f>
-        <v>2211.8669999999997</v>
-      </c>
-      <c r="R2">
-        <f>'General Demographics'!R2*0.0049</f>
-        <v>2768.1619000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -14245,20 +16237,12 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="str">
+      <c r="C3">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
-      </c>
-      <c r="P3">
-        <f>'General Demographics'!P3*0.0042</f>
-        <v>3734.9339999999997</v>
-      </c>
-      <c r="R3">
-        <f>'General Demographics'!R3*0.0049</f>
-        <v>4415.6448</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -14269,20 +16253,12 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="str">
+      <c r="C4">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="P4">
-        <f>'General Demographics'!P4*0.0096</f>
-        <v>64749.388799999993</v>
-      </c>
-      <c r="R4">
-        <f>0.0095*'General Demographics'!R4</f>
-        <v>63663.167000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -14293,20 +16269,12 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="str">
+      <c r="C5">
         <f t="shared" si="0"/>
-        <v>N.A.</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="P5">
-        <f>'General Demographics'!P5*0.0096</f>
-        <v>12735.292800000001</v>
-      </c>
-      <c r="R5">
-        <f>0.0095*'General Demographics'!R5</f>
-        <v>12629.157499999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -17996,7 +19964,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -19766,7 +21733,7 @@
   <dimension ref="A1:T47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O42" sqref="O42:T45"/>
+      <selection activeCell="B42" sqref="B42:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -19840,7 +21807,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.961,"N.A.")</f>
@@ -19874,7 +21841,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -19908,7 +21875,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -19917,22 +21884,22 @@
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="4">
+      <c r="O4" s="3">
         <v>2091.7297289511453</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="3">
         <v>2152.8929835390945</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="3">
         <v>2263.5001384020375</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="3">
         <v>2167.5532763207902</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="3">
         <v>1872.8881453154877</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="3">
         <v>1834.5161619598503</v>
       </c>
     </row>
@@ -19942,7 +21909,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -19951,16 +21918,16 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="3">
         <v>293.49630996309963</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="3">
         <v>222.49333333333331</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="3">
         <v>269.98661567877633</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="3">
         <v>271.34666666666669</v>
       </c>
       <c r="S5">
@@ -20067,7 +22034,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.035295,"N.A.")</f>
@@ -20101,7 +22068,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="1"/>
@@ -20135,7 +22102,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="1"/>
@@ -20157,7 +22124,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="1"/>
@@ -20270,7 +22237,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.003705,"N.A.")</f>
@@ -20292,7 +22259,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
@@ -20326,7 +22293,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
@@ -20348,7 +22315,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
@@ -20461,7 +22428,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.961,"N.A.")</f>
@@ -20495,7 +22462,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="3"/>
@@ -20529,7 +22496,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="3"/>
@@ -20538,22 +22505,22 @@
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>1059.2702710488547</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <v>649.10701646090547</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <v>207.49986159796271</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <v>92.44672367920964</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <v>177.11185468451231</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <v>15.483838040149749</v>
       </c>
     </row>
@@ -20563,7 +22530,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="3"/>
@@ -20572,16 +22539,16 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <v>211.50369003690037</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <v>184.50666666666669</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <v>149.01338432122367</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <v>161.65333333333331</v>
       </c>
       <c r="S29">
@@ -20688,7 +22655,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.035295,"N.A.")</f>
@@ -20722,7 +22689,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" si="4"/>
@@ -20756,7 +22723,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="4"/>
@@ -20778,7 +22745,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="4"/>
@@ -20891,7 +22858,7 @@
         <v>Gen 0-4</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.003705,"N.A.")</f>
@@ -20913,7 +22880,7 @@
         <v>Gen 5-14</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="5"/>
@@ -20947,7 +22914,7 @@
         <v>Gen 15-64</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="5"/>
@@ -20969,7 +22936,7 @@
         <v>Gen 65+</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="5"/>
@@ -21018,17 +22985,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="36">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5">
+  <dataValidations count="13">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B5 B10:B13 B18:B21 B26:B29 B34:B37 B42:B45">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6">
@@ -21037,88 +22995,28 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>"Fraction,Number"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46">
@@ -21138,6 +23036,2014 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T64" sqref="T64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1">
+        <v>2000</v>
+      </c>
+      <c r="F1">
+        <v>2001</v>
+      </c>
+      <c r="G1">
+        <v>2002</v>
+      </c>
+      <c r="H1">
+        <v>2003</v>
+      </c>
+      <c r="I1">
+        <v>2004</v>
+      </c>
+      <c r="J1">
+        <v>2005</v>
+      </c>
+      <c r="K1">
+        <v>2006</v>
+      </c>
+      <c r="L1">
+        <v>2007</v>
+      </c>
+      <c r="M1">
+        <v>2008</v>
+      </c>
+      <c r="N1">
+        <v>2009</v>
+      </c>
+      <c r="O1">
+        <v>2010</v>
+      </c>
+      <c r="P1">
+        <v>2011</v>
+      </c>
+      <c r="Q1">
+        <v>2012</v>
+      </c>
+      <c r="R1">
+        <v>2013</v>
+      </c>
+      <c r="S1">
+        <v>2014</v>
+      </c>
+      <c r="T1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0.7,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2">
+        <f>('Notified Cases'!O2+'Notified Cases'!O10+'Notified Cases'!O18)/('Notified Cases'!O2+'Notified Cases'!O10+'Notified Cases'!O18+'Notified Cases'!O26+'Notified Cases'!O34+'Notified Cases'!O42)</f>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="P2">
+        <f>('Notified Cases'!P2+'Notified Cases'!P10+'Notified Cases'!P18)/('Notified Cases'!P2+'Notified Cases'!P10+'Notified Cases'!P18+'Notified Cases'!P26+'Notified Cases'!P34+'Notified Cases'!P42)</f>
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <f>('Notified Cases'!Q2+'Notified Cases'!Q10+'Notified Cases'!Q18)/('Notified Cases'!Q2+'Notified Cases'!Q10+'Notified Cases'!Q18+'Notified Cases'!Q26+'Notified Cases'!Q34+'Notified Cases'!Q42)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <f>('Notified Cases'!R2+'Notified Cases'!R10+'Notified Cases'!R18)/('Notified Cases'!R2+'Notified Cases'!R10+'Notified Cases'!R18+'Notified Cases'!R26+'Notified Cases'!R34+'Notified Cases'!R42)</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>('Notified Cases'!S2+'Notified Cases'!S10+'Notified Cases'!S18)/('Notified Cases'!S2+'Notified Cases'!S10+'Notified Cases'!S18+'Notified Cases'!S26+'Notified Cases'!S34+'Notified Cases'!S42)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T2">
+        <f>('Notified Cases'!T2+'Notified Cases'!T10+'Notified Cases'!T18)/('Notified Cases'!T2+'Notified Cases'!T10+'Notified Cases'!T18+'Notified Cases'!T26+'Notified Cases'!T34+'Notified Cases'!T42)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(SUMPRODUCT(--(E3:T3&lt;&gt;""))=0,0.7,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <f>('Notified Cases'!O3+'Notified Cases'!O11+'Notified Cases'!O19)/('Notified Cases'!O3+'Notified Cases'!O11+'Notified Cases'!O19+'Notified Cases'!O27+'Notified Cases'!O35+'Notified Cases'!O43)</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="P3">
+        <f>('Notified Cases'!P3+'Notified Cases'!P11+'Notified Cases'!P19)/('Notified Cases'!P3+'Notified Cases'!P11+'Notified Cases'!P19+'Notified Cases'!P27+'Notified Cases'!P35+'Notified Cases'!P43)</f>
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="Q3">
+        <f>('Notified Cases'!Q3+'Notified Cases'!Q11+'Notified Cases'!Q19)/('Notified Cases'!Q3+'Notified Cases'!Q11+'Notified Cases'!Q19+'Notified Cases'!Q27+'Notified Cases'!Q35+'Notified Cases'!Q43)</f>
+        <v>0.84615384615384615</v>
+      </c>
+      <c r="R3">
+        <f>('Notified Cases'!R3+'Notified Cases'!R11+'Notified Cases'!R19)/('Notified Cases'!R3+'Notified Cases'!R11+'Notified Cases'!R19+'Notified Cases'!R27+'Notified Cases'!R35+'Notified Cases'!R43)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="S3">
+        <f>('Notified Cases'!S3+'Notified Cases'!S11+'Notified Cases'!S19)/('Notified Cases'!S3+'Notified Cases'!S11+'Notified Cases'!S19+'Notified Cases'!S27+'Notified Cases'!S35+'Notified Cases'!S43)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T3">
+        <f>('Notified Cases'!T3+'Notified Cases'!T11+'Notified Cases'!T19)/('Notified Cases'!T3+'Notified Cases'!T11+'Notified Cases'!T19+'Notified Cases'!T27+'Notified Cases'!T35+'Notified Cases'!T43)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(SUMPRODUCT(--(E4:T4&lt;&gt;""))=0,0.7,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4">
+        <f>('Notified Cases'!O4+'Notified Cases'!O12+'Notified Cases'!O20)/('Notified Cases'!O4+'Notified Cases'!O12+'Notified Cases'!O20+'Notified Cases'!O28+'Notified Cases'!O36+'Notified Cases'!O44)</f>
+        <v>0.6638304439705317</v>
+      </c>
+      <c r="P4">
+        <f>('Notified Cases'!P4+'Notified Cases'!P12+'Notified Cases'!P20)/('Notified Cases'!P4+'Notified Cases'!P12+'Notified Cases'!P20+'Notified Cases'!P28+'Notified Cases'!P36+'Notified Cases'!P44)</f>
+        <v>0.76834153588119003</v>
+      </c>
+      <c r="Q4">
+        <f>('Notified Cases'!Q4+'Notified Cases'!Q12+'Notified Cases'!Q20)/('Notified Cases'!Q4+'Notified Cases'!Q12+'Notified Cases'!Q20+'Notified Cases'!Q28+'Notified Cases'!Q36+'Notified Cases'!Q44)</f>
+        <v>0.91602595645570117</v>
+      </c>
+      <c r="R4">
+        <f>('Notified Cases'!R4+'Notified Cases'!R12+'Notified Cases'!R20)/('Notified Cases'!R4+'Notified Cases'!R12+'Notified Cases'!R20+'Notified Cases'!R28+'Notified Cases'!R36+'Notified Cases'!R44)</f>
+        <v>0.959094370053447</v>
+      </c>
+      <c r="S4">
+        <f>('Notified Cases'!S4+'Notified Cases'!S12+'Notified Cases'!S20)/('Notified Cases'!S4+'Notified Cases'!S12+'Notified Cases'!S20+'Notified Cases'!S28+'Notified Cases'!S36+'Notified Cases'!S44)</f>
+        <v>0.88499447930412301</v>
+      </c>
+      <c r="T4">
+        <f>('Notified Cases'!T4+'Notified Cases'!T12+'Notified Cases'!T20)/('Notified Cases'!T4+'Notified Cases'!T12+'Notified Cases'!T20+'Notified Cases'!T28+'Notified Cases'!T36+'Notified Cases'!T44)</f>
+        <v>0.93720282420756063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="str">
+        <f>IF(SUMPRODUCT(--(E5:T5&lt;&gt;""))=0,0.7,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <f>('Notified Cases'!O5+'Notified Cases'!O13+'Notified Cases'!O21)/('Notified Cases'!O5+'Notified Cases'!O13+'Notified Cases'!O21+'Notified Cases'!O29+'Notified Cases'!O37+'Notified Cases'!O45)</f>
+        <v>0.58118081180811809</v>
+      </c>
+      <c r="P5">
+        <f>('Notified Cases'!P5+'Notified Cases'!P13+'Notified Cases'!P21)/('Notified Cases'!P5+'Notified Cases'!P13+'Notified Cases'!P21+'Notified Cases'!P29+'Notified Cases'!P37+'Notified Cases'!P45)</f>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="Q5">
+        <f>('Notified Cases'!Q5+'Notified Cases'!Q13+'Notified Cases'!Q21)/('Notified Cases'!Q5+'Notified Cases'!Q13+'Notified Cases'!Q21+'Notified Cases'!Q29+'Notified Cases'!Q37+'Notified Cases'!Q45)</f>
+        <v>0.6443594646271511</v>
+      </c>
+      <c r="R5">
+        <f>('Notified Cases'!R5+'Notified Cases'!R13+'Notified Cases'!R21)/('Notified Cases'!R5+'Notified Cases'!R13+'Notified Cases'!R21+'Notified Cases'!R29+'Notified Cases'!R37+'Notified Cases'!R45)</f>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="S5">
+        <f>('Notified Cases'!S5+'Notified Cases'!S13+'Notified Cases'!S21)/('Notified Cases'!S5+'Notified Cases'!S13+'Notified Cases'!S21+'Notified Cases'!S29+'Notified Cases'!S37+'Notified Cases'!S45)</f>
+        <v>0.6931106471816284</v>
+      </c>
+      <c r="T5">
+        <f>('Notified Cases'!T5+'Notified Cases'!T13+'Notified Cases'!T21)/('Notified Cases'!T5+'Notified Cases'!T13+'Notified Cases'!T21+'Notified Cases'!T29+'Notified Cases'!T37+'Notified Cases'!T45)</f>
+        <v>0.71823204419889508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6">
+        <f>IF(SUMPRODUCT(--(E6:T6&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7">
+        <f>IF(SUMPRODUCT(--(E7:T7&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+      <c r="F9">
+        <v>2001</v>
+      </c>
+      <c r="G9">
+        <v>2002</v>
+      </c>
+      <c r="H9">
+        <v>2003</v>
+      </c>
+      <c r="I9">
+        <v>2004</v>
+      </c>
+      <c r="J9">
+        <v>2005</v>
+      </c>
+      <c r="K9">
+        <v>2006</v>
+      </c>
+      <c r="L9">
+        <v>2007</v>
+      </c>
+      <c r="M9">
+        <v>2008</v>
+      </c>
+      <c r="N9">
+        <v>2009</v>
+      </c>
+      <c r="O9">
+        <v>2010</v>
+      </c>
+      <c r="P9">
+        <v>2011</v>
+      </c>
+      <c r="Q9">
+        <v>2012</v>
+      </c>
+      <c r="R9">
+        <v>2013</v>
+      </c>
+      <c r="S9">
+        <v>2014</v>
+      </c>
+      <c r="T9">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="str">
+        <f>IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10">
+        <f>('Notified Cases'!O26+'Notified Cases'!O34+'Notified Cases'!O42)/('Notified Cases'!O42+'Notified Cases'!O34+'Notified Cases'!O26+'Notified Cases'!O18+'Notified Cases'!O10+'Notified Cases'!O2)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="P10">
+        <f>('Notified Cases'!P26+'Notified Cases'!P34+'Notified Cases'!P42)/('Notified Cases'!P42+'Notified Cases'!P34+'Notified Cases'!P26+'Notified Cases'!P18+'Notified Cases'!P10+'Notified Cases'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f>('Notified Cases'!Q26+'Notified Cases'!Q34+'Notified Cases'!Q42)/('Notified Cases'!Q42+'Notified Cases'!Q34+'Notified Cases'!Q26+'Notified Cases'!Q18+'Notified Cases'!Q10+'Notified Cases'!Q2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="R10">
+        <f>('Notified Cases'!R26+'Notified Cases'!R34+'Notified Cases'!R42)/('Notified Cases'!R42+'Notified Cases'!R34+'Notified Cases'!R26+'Notified Cases'!R18+'Notified Cases'!R10+'Notified Cases'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>('Notified Cases'!S26+'Notified Cases'!S34+'Notified Cases'!S42)/('Notified Cases'!S42+'Notified Cases'!S34+'Notified Cases'!S26+'Notified Cases'!S18+'Notified Cases'!S10+'Notified Cases'!S2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T10">
+        <f>('Notified Cases'!T26+'Notified Cases'!T34+'Notified Cases'!T42)/('Notified Cases'!T42+'Notified Cases'!T34+'Notified Cases'!T26+'Notified Cases'!T18+'Notified Cases'!T10+'Notified Cases'!T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="str">
+        <f>IF(SUMPRODUCT(--(E11:T11&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11">
+        <f>('Notified Cases'!O27+'Notified Cases'!O35+'Notified Cases'!O43)/('Notified Cases'!O43+'Notified Cases'!O35+'Notified Cases'!O27+'Notified Cases'!O19+'Notified Cases'!O11+'Notified Cases'!O3)</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="P11">
+        <f>('Notified Cases'!P27+'Notified Cases'!P35+'Notified Cases'!P43)/('Notified Cases'!P43+'Notified Cases'!P35+'Notified Cases'!P27+'Notified Cases'!P19+'Notified Cases'!P11+'Notified Cases'!P3)</f>
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="Q11">
+        <f>('Notified Cases'!Q27+'Notified Cases'!Q35+'Notified Cases'!Q43)/('Notified Cases'!Q43+'Notified Cases'!Q35+'Notified Cases'!Q27+'Notified Cases'!Q19+'Notified Cases'!Q11+'Notified Cases'!Q3)</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="R11">
+        <f>('Notified Cases'!R27+'Notified Cases'!R35+'Notified Cases'!R43)/('Notified Cases'!R43+'Notified Cases'!R35+'Notified Cases'!R27+'Notified Cases'!R19+'Notified Cases'!R11+'Notified Cases'!R3)</f>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="S11">
+        <f>('Notified Cases'!S27+'Notified Cases'!S35+'Notified Cases'!S43)/('Notified Cases'!S43+'Notified Cases'!S35+'Notified Cases'!S27+'Notified Cases'!S19+'Notified Cases'!S11+'Notified Cases'!S3)</f>
+        <v>0.5</v>
+      </c>
+      <c r="T11">
+        <f>('Notified Cases'!T27+'Notified Cases'!T35+'Notified Cases'!T43)/('Notified Cases'!T43+'Notified Cases'!T35+'Notified Cases'!T27+'Notified Cases'!T19+'Notified Cases'!T11+'Notified Cases'!T3)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="str">
+        <f>IF(SUMPRODUCT(--(E12:T12&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12">
+        <f>('Notified Cases'!O28+'Notified Cases'!O36+'Notified Cases'!O44)/('Notified Cases'!O44+'Notified Cases'!O36+'Notified Cases'!O28+'Notified Cases'!O20+'Notified Cases'!O12+'Notified Cases'!O4)</f>
+        <v>0.33616955602946835</v>
+      </c>
+      <c r="P12">
+        <f>('Notified Cases'!P28+'Notified Cases'!P36+'Notified Cases'!P44)/('Notified Cases'!P44+'Notified Cases'!P36+'Notified Cases'!P28+'Notified Cases'!P20+'Notified Cases'!P12+'Notified Cases'!P4)</f>
+        <v>0.23165846411880994</v>
+      </c>
+      <c r="Q12">
+        <f>('Notified Cases'!Q28+'Notified Cases'!Q36+'Notified Cases'!Q44)/('Notified Cases'!Q44+'Notified Cases'!Q36+'Notified Cases'!Q28+'Notified Cases'!Q20+'Notified Cases'!Q12+'Notified Cases'!Q4)</f>
+        <v>8.3974043544298951E-2</v>
+      </c>
+      <c r="R12">
+        <f>('Notified Cases'!R28+'Notified Cases'!R36+'Notified Cases'!R44)/('Notified Cases'!R44+'Notified Cases'!R36+'Notified Cases'!R28+'Notified Cases'!R20+'Notified Cases'!R12+'Notified Cases'!R4)</f>
+        <v>4.0905629946552939E-2</v>
+      </c>
+      <c r="S12">
+        <f>('Notified Cases'!S28+'Notified Cases'!S36+'Notified Cases'!S44)/('Notified Cases'!S44+'Notified Cases'!S36+'Notified Cases'!S28+'Notified Cases'!S20+'Notified Cases'!S12+'Notified Cases'!S4)</f>
+        <v>0.11500552069587694</v>
+      </c>
+      <c r="T12">
+        <f>('Notified Cases'!T28+'Notified Cases'!T36+'Notified Cases'!T44)/('Notified Cases'!T44+'Notified Cases'!T36+'Notified Cases'!T28+'Notified Cases'!T20+'Notified Cases'!T12+'Notified Cases'!T4)</f>
+        <v>6.2797175792439361E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="str">
+        <f>IF(SUMPRODUCT(--(E13:T13&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13">
+        <f>('Notified Cases'!O29+'Notified Cases'!O37+'Notified Cases'!O45)/('Notified Cases'!O45+'Notified Cases'!O37+'Notified Cases'!O29+'Notified Cases'!O21+'Notified Cases'!O13+'Notified Cases'!O5)</f>
+        <v>0.41881918819188191</v>
+      </c>
+      <c r="P13">
+        <f>('Notified Cases'!P29+'Notified Cases'!P37+'Notified Cases'!P45)/('Notified Cases'!P45+'Notified Cases'!P37+'Notified Cases'!P29+'Notified Cases'!P21+'Notified Cases'!P13+'Notified Cases'!P5)</f>
+        <v>0.45333333333333337</v>
+      </c>
+      <c r="Q13">
+        <f>('Notified Cases'!Q29+'Notified Cases'!Q37+'Notified Cases'!Q45)/('Notified Cases'!Q45+'Notified Cases'!Q37+'Notified Cases'!Q29+'Notified Cases'!Q21+'Notified Cases'!Q13+'Notified Cases'!Q5)</f>
+        <v>0.35564053537284884</v>
+      </c>
+      <c r="R13">
+        <f>('Notified Cases'!R29+'Notified Cases'!R37+'Notified Cases'!R45)/('Notified Cases'!R45+'Notified Cases'!R37+'Notified Cases'!R29+'Notified Cases'!R21+'Notified Cases'!R13+'Notified Cases'!R5)</f>
+        <v>0.37333333333333329</v>
+      </c>
+      <c r="S13">
+        <f>('Notified Cases'!S29+'Notified Cases'!S37+'Notified Cases'!S45)/('Notified Cases'!S45+'Notified Cases'!S37+'Notified Cases'!S29+'Notified Cases'!S21+'Notified Cases'!S13+'Notified Cases'!S5)</f>
+        <v>0.3068893528183716</v>
+      </c>
+      <c r="T13">
+        <f>('Notified Cases'!T29+'Notified Cases'!T37+'Notified Cases'!T45)/('Notified Cases'!T45+'Notified Cases'!T37+'Notified Cases'!T29+'Notified Cases'!T21+'Notified Cases'!T13+'Notified Cases'!T5)</f>
+        <v>0.28176795580110497</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14">
+        <f>IF(SUMPRODUCT(--(E14:T14&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15">
+        <f>IF(SUMPRODUCT(--(E15:T15&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <v>2000</v>
+      </c>
+      <c r="F17">
+        <v>2001</v>
+      </c>
+      <c r="G17">
+        <v>2002</v>
+      </c>
+      <c r="H17">
+        <v>2003</v>
+      </c>
+      <c r="I17">
+        <v>2004</v>
+      </c>
+      <c r="J17">
+        <v>2005</v>
+      </c>
+      <c r="K17">
+        <v>2006</v>
+      </c>
+      <c r="L17">
+        <v>2007</v>
+      </c>
+      <c r="M17">
+        <v>2008</v>
+      </c>
+      <c r="N17">
+        <v>2009</v>
+      </c>
+      <c r="O17">
+        <v>2010</v>
+      </c>
+      <c r="P17">
+        <v>2011</v>
+      </c>
+      <c r="Q17">
+        <v>2012</v>
+      </c>
+      <c r="R17">
+        <v>2013</v>
+      </c>
+      <c r="S17">
+        <v>2014</v>
+      </c>
+      <c r="T17">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="str">
+        <f>IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <f>'Notified Cases'!O2/('Notified Cases'!O2+'Notified Cases'!O10+'Notified Cases'!O18)</f>
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <f>'Notified Cases'!P2/('Notified Cases'!P2+'Notified Cases'!P10+'Notified Cases'!P18)</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q18">
+        <f>'Notified Cases'!Q2/('Notified Cases'!Q2+'Notified Cases'!Q10+'Notified Cases'!Q18)</f>
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <f>'Notified Cases'!R2/('Notified Cases'!R2+'Notified Cases'!R10+'Notified Cases'!R18)</f>
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f>'Notified Cases'!S2/('Notified Cases'!S2+'Notified Cases'!S10+'Notified Cases'!S18)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T18">
+        <f>'Notified Cases'!T2/('Notified Cases'!T2+'Notified Cases'!T10+'Notified Cases'!T18)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="str">
+        <f>IF(SUMPRODUCT(--(E19:T19&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19">
+        <f>'Notified Cases'!O3/('Notified Cases'!O3+'Notified Cases'!O11+'Notified Cases'!O19)</f>
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <f>'Notified Cases'!P3/('Notified Cases'!P3+'Notified Cases'!P11+'Notified Cases'!P19)</f>
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <f>'Notified Cases'!Q3/('Notified Cases'!Q3+'Notified Cases'!Q11+'Notified Cases'!Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <f>'Notified Cases'!R3/('Notified Cases'!R3+'Notified Cases'!R11+'Notified Cases'!R19)</f>
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <f>'Notified Cases'!S3/('Notified Cases'!S3+'Notified Cases'!S11+'Notified Cases'!S19)</f>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="T19">
+        <f>'Notified Cases'!T3/('Notified Cases'!T3+'Notified Cases'!T11+'Notified Cases'!T19)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="str">
+        <f>IF(SUMPRODUCT(--(E20:T20&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <f>'Notified Cases'!O4/('Notified Cases'!O4+'Notified Cases'!O12+'Notified Cases'!O20)</f>
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <f>'Notified Cases'!P4/('Notified Cases'!P4+'Notified Cases'!P12+'Notified Cases'!P20)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <f>'Notified Cases'!Q4/('Notified Cases'!Q4+'Notified Cases'!Q12+'Notified Cases'!Q20)</f>
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <f>'Notified Cases'!R4/('Notified Cases'!R4+'Notified Cases'!R12+'Notified Cases'!R20)</f>
+        <v>1</v>
+      </c>
+      <c r="S20">
+        <f>'Notified Cases'!S4/('Notified Cases'!S4+'Notified Cases'!S12+'Notified Cases'!S20)</f>
+        <v>0.69317752793086063</v>
+      </c>
+      <c r="T20">
+        <f>'Notified Cases'!T4/('Notified Cases'!T4+'Notified Cases'!T12+'Notified Cases'!T20)</f>
+        <v>0.67731409091257411</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="str">
+        <f>IF(SUMPRODUCT(--(E21:T21&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <f>'Notified Cases'!O5/('Notified Cases'!O5+'Notified Cases'!O13+'Notified Cases'!O21)</f>
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <f>'Notified Cases'!P5/('Notified Cases'!P5+'Notified Cases'!P13+'Notified Cases'!P21)</f>
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <f>'Notified Cases'!Q5/('Notified Cases'!Q5+'Notified Cases'!Q13+'Notified Cases'!Q21)</f>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>'Notified Cases'!R5/('Notified Cases'!R5+'Notified Cases'!R13+'Notified Cases'!R21)</f>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f>'Notified Cases'!S5/('Notified Cases'!S5+'Notified Cases'!S13+'Notified Cases'!S21)</f>
+        <v>0.72891566265060237</v>
+      </c>
+      <c r="T21">
+        <f>'Notified Cases'!T5/('Notified Cases'!T5+'Notified Cases'!T13+'Notified Cases'!T21)</f>
+        <v>0.71025641025641029</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22">
+        <f>IF(SUMPRODUCT(--(E22:T22&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23">
+        <f>IF(SUMPRODUCT(--(E23:T23&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>2000</v>
+      </c>
+      <c r="F25">
+        <v>2001</v>
+      </c>
+      <c r="G25">
+        <v>2002</v>
+      </c>
+      <c r="H25">
+        <v>2003</v>
+      </c>
+      <c r="I25">
+        <v>2004</v>
+      </c>
+      <c r="J25">
+        <v>2005</v>
+      </c>
+      <c r="K25">
+        <v>2006</v>
+      </c>
+      <c r="L25">
+        <v>2007</v>
+      </c>
+      <c r="M25">
+        <v>2008</v>
+      </c>
+      <c r="N25">
+        <v>2009</v>
+      </c>
+      <c r="O25">
+        <v>2010</v>
+      </c>
+      <c r="P25">
+        <v>2011</v>
+      </c>
+      <c r="Q25">
+        <v>2012</v>
+      </c>
+      <c r="R25">
+        <v>2013</v>
+      </c>
+      <c r="S25">
+        <v>2014</v>
+      </c>
+      <c r="T25">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="str">
+        <f>IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <f>'Notified Cases'!O10/('Notified Cases'!O2+'Notified Cases'!O10+'Notified Cases'!O18)</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>'Notified Cases'!P10/('Notified Cases'!P2+'Notified Cases'!P10+'Notified Cases'!P18)</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q26">
+        <f>'Notified Cases'!Q10/('Notified Cases'!Q2+'Notified Cases'!Q10+'Notified Cases'!Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <f>'Notified Cases'!R10/('Notified Cases'!R2+'Notified Cases'!R10+'Notified Cases'!R18)</f>
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <f>'Notified Cases'!S10/('Notified Cases'!S2+'Notified Cases'!S10+'Notified Cases'!S18)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T26">
+        <f>'Notified Cases'!T10/('Notified Cases'!T2+'Notified Cases'!T10+'Notified Cases'!T18)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="str">
+        <f>IF(SUMPRODUCT(--(E27:T27&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <f>'Notified Cases'!O11/('Notified Cases'!O3+'Notified Cases'!O11+'Notified Cases'!O19)</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>'Notified Cases'!P11/('Notified Cases'!P3+'Notified Cases'!P11+'Notified Cases'!P19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f>'Notified Cases'!Q11/('Notified Cases'!Q3+'Notified Cases'!Q11+'Notified Cases'!Q19)</f>
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <f>'Notified Cases'!R11/('Notified Cases'!R3+'Notified Cases'!R11+'Notified Cases'!R19)</f>
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <f>'Notified Cases'!S11/('Notified Cases'!S3+'Notified Cases'!S11+'Notified Cases'!S19)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="T27">
+        <f>'Notified Cases'!T11/('Notified Cases'!T3+'Notified Cases'!T11+'Notified Cases'!T19)</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="str">
+        <f>IF(SUMPRODUCT(--(E28:T28&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="O28">
+        <f>'Notified Cases'!O12/('Notified Cases'!O4+'Notified Cases'!O12+'Notified Cases'!O20)</f>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f>'Notified Cases'!P12/('Notified Cases'!P4+'Notified Cases'!P12+'Notified Cases'!P20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f>'Notified Cases'!Q12/('Notified Cases'!Q4+'Notified Cases'!Q12+'Notified Cases'!Q20)</f>
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <f>'Notified Cases'!R12/('Notified Cases'!R4+'Notified Cases'!R12+'Notified Cases'!R20)</f>
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <f>'Notified Cases'!S12/('Notified Cases'!S4+'Notified Cases'!S12+'Notified Cases'!S20)</f>
+        <v>0.26018841720700236</v>
+      </c>
+      <c r="T28">
+        <f>'Notified Cases'!T12/('Notified Cases'!T4+'Notified Cases'!T12+'Notified Cases'!T20)</f>
+        <v>0.24589109319476621</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="str">
+        <f>IF(SUMPRODUCT(--(E29:T29&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="O29">
+        <f>'Notified Cases'!O13/('Notified Cases'!O5+'Notified Cases'!O13+'Notified Cases'!O21)</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>'Notified Cases'!P13/('Notified Cases'!P5+'Notified Cases'!P13+'Notified Cases'!P21)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f>'Notified Cases'!Q13/('Notified Cases'!Q5+'Notified Cases'!Q13+'Notified Cases'!Q21)</f>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f>'Notified Cases'!R13/('Notified Cases'!R5+'Notified Cases'!R13+'Notified Cases'!R21)</f>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f>'Notified Cases'!S13/('Notified Cases'!S5+'Notified Cases'!S13+'Notified Cases'!S21)</f>
+        <v>0.18975903614457831</v>
+      </c>
+      <c r="T29">
+        <f>'Notified Cases'!T13/('Notified Cases'!T5+'Notified Cases'!T13+'Notified Cases'!T21)</f>
+        <v>0.23589743589743589</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30">
+        <f>IF(SUMPRODUCT(--(E30:T30&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31">
+        <f>IF(SUMPRODUCT(--(E31:T31&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33">
+        <v>2000</v>
+      </c>
+      <c r="F33">
+        <v>2001</v>
+      </c>
+      <c r="G33">
+        <v>2002</v>
+      </c>
+      <c r="H33">
+        <v>2003</v>
+      </c>
+      <c r="I33">
+        <v>2004</v>
+      </c>
+      <c r="J33">
+        <v>2005</v>
+      </c>
+      <c r="K33">
+        <v>2006</v>
+      </c>
+      <c r="L33">
+        <v>2007</v>
+      </c>
+      <c r="M33">
+        <v>2008</v>
+      </c>
+      <c r="N33">
+        <v>2009</v>
+      </c>
+      <c r="O33">
+        <v>2010</v>
+      </c>
+      <c r="P33">
+        <v>2011</v>
+      </c>
+      <c r="Q33">
+        <v>2012</v>
+      </c>
+      <c r="R33">
+        <v>2013</v>
+      </c>
+      <c r="S33">
+        <v>2014</v>
+      </c>
+      <c r="T33">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="str">
+        <f>IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="O34">
+        <f>'Notified Cases'!O18/('Notified Cases'!O18+'Notified Cases'!O10+'Notified Cases'!O2)</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>'Notified Cases'!P18/('Notified Cases'!P18+'Notified Cases'!P10+'Notified Cases'!P2)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f>'Notified Cases'!Q18/('Notified Cases'!Q18+'Notified Cases'!Q10+'Notified Cases'!Q2)</f>
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <f>'Notified Cases'!R18/('Notified Cases'!R18+'Notified Cases'!R10+'Notified Cases'!R2)</f>
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <f>'Notified Cases'!S18/('Notified Cases'!S18+'Notified Cases'!S10+'Notified Cases'!S2)</f>
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <f>'Notified Cases'!T18/('Notified Cases'!T18+'Notified Cases'!T10+'Notified Cases'!T2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(SUMPRODUCT(--(E35:T35&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="O35">
+        <f>'Notified Cases'!O19/('Notified Cases'!O19+'Notified Cases'!O11+'Notified Cases'!O3)</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>'Notified Cases'!P19/('Notified Cases'!P19+'Notified Cases'!P11+'Notified Cases'!P3)</f>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f>'Notified Cases'!Q19/('Notified Cases'!Q19+'Notified Cases'!Q11+'Notified Cases'!Q3)</f>
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <f>'Notified Cases'!R19/('Notified Cases'!R19+'Notified Cases'!R11+'Notified Cases'!R3)</f>
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <f>'Notified Cases'!S19/('Notified Cases'!S19+'Notified Cases'!S11+'Notified Cases'!S3)</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T35">
+        <f>'Notified Cases'!T19/('Notified Cases'!T19+'Notified Cases'!T11+'Notified Cases'!T3)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="str">
+        <f>IF(SUMPRODUCT(--(E36:T36&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="O36">
+        <f>'Notified Cases'!O20/('Notified Cases'!O20+'Notified Cases'!O12+'Notified Cases'!O4)</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>'Notified Cases'!P20/('Notified Cases'!P20+'Notified Cases'!P12+'Notified Cases'!P4)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f>'Notified Cases'!Q20/('Notified Cases'!Q20+'Notified Cases'!Q12+'Notified Cases'!Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <f>'Notified Cases'!R20/('Notified Cases'!R20+'Notified Cases'!R12+'Notified Cases'!R4)</f>
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <f>'Notified Cases'!S20/('Notified Cases'!S20+'Notified Cases'!S12+'Notified Cases'!S4)</f>
+        <v>4.6634054862136988E-2</v>
+      </c>
+      <c r="T36">
+        <f>'Notified Cases'!T20/('Notified Cases'!T20+'Notified Cases'!T12+'Notified Cases'!T4)</f>
+        <v>7.6794815892659712E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="str">
+        <f>IF(SUMPRODUCT(--(E37:T37&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="O37">
+        <f>'Notified Cases'!O21/('Notified Cases'!O21+'Notified Cases'!O13+'Notified Cases'!O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>'Notified Cases'!P21/('Notified Cases'!P21+'Notified Cases'!P13+'Notified Cases'!P5)</f>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f>'Notified Cases'!Q21/('Notified Cases'!Q21+'Notified Cases'!Q13+'Notified Cases'!Q5)</f>
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <f>'Notified Cases'!R21/('Notified Cases'!R21+'Notified Cases'!R13+'Notified Cases'!R5)</f>
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <f>'Notified Cases'!S21/('Notified Cases'!S21+'Notified Cases'!S13+'Notified Cases'!S5)</f>
+        <v>8.1325301204819275E-2</v>
+      </c>
+      <c r="T37">
+        <f>'Notified Cases'!T21/('Notified Cases'!T21+'Notified Cases'!T13+'Notified Cases'!T5)</f>
+        <v>5.3846153846153849E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38">
+        <f>IF(SUMPRODUCT(--(E38:T38&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <f>IF(SUMPRODUCT(--(E39:T39&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41">
+        <v>2000</v>
+      </c>
+      <c r="F41">
+        <v>2001</v>
+      </c>
+      <c r="G41">
+        <v>2002</v>
+      </c>
+      <c r="H41">
+        <v>2003</v>
+      </c>
+      <c r="I41">
+        <v>2004</v>
+      </c>
+      <c r="J41">
+        <v>2005</v>
+      </c>
+      <c r="K41">
+        <v>2006</v>
+      </c>
+      <c r="L41">
+        <v>2007</v>
+      </c>
+      <c r="M41">
+        <v>2008</v>
+      </c>
+      <c r="N41">
+        <v>2009</v>
+      </c>
+      <c r="O41">
+        <v>2010</v>
+      </c>
+      <c r="P41">
+        <v>2011</v>
+      </c>
+      <c r="Q41">
+        <v>2012</v>
+      </c>
+      <c r="R41">
+        <v>2013</v>
+      </c>
+      <c r="S41">
+        <v>2014</v>
+      </c>
+      <c r="T41">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="str">
+        <f>IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <f>'Notified Cases'!O26/('Notified Cases'!O26+'Notified Cases'!O34+'Notified Cases'!O42)</f>
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f>'Notified Cases'!Q26/('Notified Cases'!Q26+'Notified Cases'!Q34+'Notified Cases'!Q42)</f>
+        <v>1</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <f>'Notified Cases'!S26/('Notified Cases'!S26+'Notified Cases'!S34+'Notified Cases'!S42)</f>
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="str">
+        <f>IF(SUMPRODUCT(--(E43:T43&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="O43">
+        <f>'Notified Cases'!O27/('Notified Cases'!O27+'Notified Cases'!O35+'Notified Cases'!O43)</f>
+        <v>1</v>
+      </c>
+      <c r="P43">
+        <f>'Notified Cases'!P27/('Notified Cases'!P27+'Notified Cases'!P35+'Notified Cases'!P43)</f>
+        <v>0.76923076923076927</v>
+      </c>
+      <c r="Q43">
+        <f>'Notified Cases'!Q27/('Notified Cases'!Q27+'Notified Cases'!Q35+'Notified Cases'!Q43)</f>
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <f>'Notified Cases'!R27/('Notified Cases'!R27+'Notified Cases'!R35+'Notified Cases'!R43)</f>
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <f>'Notified Cases'!S27/('Notified Cases'!S27+'Notified Cases'!S35+'Notified Cases'!S43)</f>
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <f>'Notified Cases'!T27/('Notified Cases'!T27+'Notified Cases'!T35+'Notified Cases'!T43)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="str">
+        <f>IF(SUMPRODUCT(--(E44:T44&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <f>'Notified Cases'!O28/('Notified Cases'!O28+'Notified Cases'!O36+'Notified Cases'!O44)</f>
+        <v>1</v>
+      </c>
+      <c r="P44">
+        <f>'Notified Cases'!P28/('Notified Cases'!P28+'Notified Cases'!P36+'Notified Cases'!P44)</f>
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <f>'Notified Cases'!Q28/('Notified Cases'!Q28+'Notified Cases'!Q36+'Notified Cases'!Q44)</f>
+        <v>1</v>
+      </c>
+      <c r="R44">
+        <f>'Notified Cases'!R28/('Notified Cases'!R28+'Notified Cases'!R36+'Notified Cases'!R44)</f>
+        <v>1</v>
+      </c>
+      <c r="S44">
+        <f>'Notified Cases'!S28/('Notified Cases'!S28+'Notified Cases'!S36+'Notified Cases'!S44)</f>
+        <v>0.50443142924824969</v>
+      </c>
+      <c r="T44">
+        <f>'Notified Cases'!T28/('Notified Cases'!T28+'Notified Cases'!T36+'Notified Cases'!T44)</f>
+        <v>8.5317999703776667E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="str">
+        <f>IF(SUMPRODUCT(--(E45:T45&lt;&gt;""))=0,0.6,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="O45">
+        <f>'Notified Cases'!O29/('Notified Cases'!O29+'Notified Cases'!O37+'Notified Cases'!O45)</f>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f>'Notified Cases'!P29/('Notified Cases'!P29+'Notified Cases'!P37+'Notified Cases'!P45)</f>
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <f>'Notified Cases'!Q29/('Notified Cases'!Q29+'Notified Cases'!Q37+'Notified Cases'!Q45)</f>
+        <v>1</v>
+      </c>
+      <c r="R45">
+        <f>'Notified Cases'!R29/('Notified Cases'!R29+'Notified Cases'!R37+'Notified Cases'!R45)</f>
+        <v>1</v>
+      </c>
+      <c r="S45">
+        <f>'Notified Cases'!S29/('Notified Cases'!S29+'Notified Cases'!S37+'Notified Cases'!S45)</f>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f>'Notified Cases'!T29/('Notified Cases'!T29+'Notified Cases'!T37+'Notified Cases'!T45)</f>
+        <v>0.96078431372549022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46">
+        <f>IF(SUMPRODUCT(--(E46:T46&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <f>IF(SUMPRODUCT(--(E47:T47&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>2000</v>
+      </c>
+      <c r="F49">
+        <v>2001</v>
+      </c>
+      <c r="G49">
+        <v>2002</v>
+      </c>
+      <c r="H49">
+        <v>2003</v>
+      </c>
+      <c r="I49">
+        <v>2004</v>
+      </c>
+      <c r="J49">
+        <v>2005</v>
+      </c>
+      <c r="K49">
+        <v>2006</v>
+      </c>
+      <c r="L49">
+        <v>2007</v>
+      </c>
+      <c r="M49">
+        <v>2008</v>
+      </c>
+      <c r="N49">
+        <v>2009</v>
+      </c>
+      <c r="O49">
+        <v>2010</v>
+      </c>
+      <c r="P49">
+        <v>2011</v>
+      </c>
+      <c r="Q49">
+        <v>2012</v>
+      </c>
+      <c r="R49">
+        <v>2013</v>
+      </c>
+      <c r="S49">
+        <v>2014</v>
+      </c>
+      <c r="T49">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="str">
+        <f>IF(SUMPRODUCT(--(E50:T50&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="O50">
+        <f>'Notified Cases'!O34/('Notified Cases'!O26+'Notified Cases'!O34+'Notified Cases'!O42)</f>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <f>'Notified Cases'!Q34/('Notified Cases'!Q26+'Notified Cases'!Q34+'Notified Cases'!Q42)</f>
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0</v>
+      </c>
+      <c r="S50">
+        <f>'Notified Cases'!S34/('Notified Cases'!S26+'Notified Cases'!S34+'Notified Cases'!S42)</f>
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="str">
+        <f>IF(SUMPRODUCT(--(E51:T51&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="O51">
+        <f>'Notified Cases'!O35/('Notified Cases'!O27+'Notified Cases'!O35+'Notified Cases'!O43)</f>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f>'Notified Cases'!P35/('Notified Cases'!P27+'Notified Cases'!P35+'Notified Cases'!P43)</f>
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="Q51">
+        <f>'Notified Cases'!Q35/('Notified Cases'!Q27+'Notified Cases'!Q35+'Notified Cases'!Q43)</f>
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <f>'Notified Cases'!R35/('Notified Cases'!R27+'Notified Cases'!R35+'Notified Cases'!R43)</f>
+        <v>0</v>
+      </c>
+      <c r="S51">
+        <f>'Notified Cases'!S35/('Notified Cases'!S27+'Notified Cases'!S35+'Notified Cases'!S43)</f>
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <f>'Notified Cases'!T35/('Notified Cases'!T27+'Notified Cases'!T35+'Notified Cases'!T43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="str">
+        <f>IF(SUMPRODUCT(--(E52:T52&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D52" t="s">
+        <v>12</v>
+      </c>
+      <c r="O52">
+        <f>'Notified Cases'!O36/('Notified Cases'!O28+'Notified Cases'!O36+'Notified Cases'!O44)</f>
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <f>'Notified Cases'!P36/('Notified Cases'!P28+'Notified Cases'!P36+'Notified Cases'!P44)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <f>'Notified Cases'!Q36/('Notified Cases'!Q28+'Notified Cases'!Q36+'Notified Cases'!Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <f>'Notified Cases'!R36/('Notified Cases'!R28+'Notified Cases'!R36+'Notified Cases'!R44)</f>
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>'Notified Cases'!S36/('Notified Cases'!S28+'Notified Cases'!S36+'Notified Cases'!S44)</f>
+        <v>0.49556857075175026</v>
+      </c>
+      <c r="T52">
+        <f>'Notified Cases'!T36/('Notified Cases'!T28+'Notified Cases'!T36+'Notified Cases'!T44)</f>
+        <v>0.91468200029622337</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="str">
+        <f>IF(SUMPRODUCT(--(E53:T53&lt;&gt;""))=0,0.3,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D53" t="s">
+        <v>12</v>
+      </c>
+      <c r="O53">
+        <f>'Notified Cases'!O37/('Notified Cases'!O29+'Notified Cases'!O37+'Notified Cases'!O45)</f>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f>'Notified Cases'!P37/('Notified Cases'!P29+'Notified Cases'!P37+'Notified Cases'!P45)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f>'Notified Cases'!Q37/('Notified Cases'!Q29+'Notified Cases'!Q37+'Notified Cases'!Q45)</f>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f>'Notified Cases'!R37/('Notified Cases'!R29+'Notified Cases'!R37+'Notified Cases'!R45)</f>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f>'Notified Cases'!S37/('Notified Cases'!S29+'Notified Cases'!S37+'Notified Cases'!S45)</f>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f>'Notified Cases'!T37/('Notified Cases'!T29+'Notified Cases'!T37+'Notified Cases'!T45)</f>
+        <v>3.9215686274509803E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54">
+        <f>IF(SUMPRODUCT(--(E54:T54&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55">
+        <f>IF(SUMPRODUCT(--(E55:T55&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57">
+        <v>2000</v>
+      </c>
+      <c r="F57">
+        <v>2001</v>
+      </c>
+      <c r="G57">
+        <v>2002</v>
+      </c>
+      <c r="H57">
+        <v>2003</v>
+      </c>
+      <c r="I57">
+        <v>2004</v>
+      </c>
+      <c r="J57">
+        <v>2005</v>
+      </c>
+      <c r="K57">
+        <v>2006</v>
+      </c>
+      <c r="L57">
+        <v>2007</v>
+      </c>
+      <c r="M57">
+        <v>2008</v>
+      </c>
+      <c r="N57">
+        <v>2009</v>
+      </c>
+      <c r="O57">
+        <v>2010</v>
+      </c>
+      <c r="P57">
+        <v>2011</v>
+      </c>
+      <c r="Q57">
+        <v>2012</v>
+      </c>
+      <c r="R57">
+        <v>2013</v>
+      </c>
+      <c r="S57">
+        <v>2014</v>
+      </c>
+      <c r="T57">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58" t="str">
+        <f>'[1]Population Definitions'!$A$2</f>
+        <v>Gen 0-4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="str">
+        <f>IF(SUMPRODUCT(--(E58:T58&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59" t="str">
+        <f>'[1]Population Definitions'!$A$3</f>
+        <v>Gen 5-14</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="str">
+        <f>IF(SUMPRODUCT(--(E59:T59&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60" t="str">
+        <f>'[1]Population Definitions'!$A$4</f>
+        <v>Gen 15-64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="str">
+        <f>IF(SUMPRODUCT(--(E60:T60&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D60" t="s">
+        <v>12</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61" t="str">
+        <f>'[1]Population Definitions'!$A$5</f>
+        <v>Gen 65+</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="str">
+        <f>IF(SUMPRODUCT(--(E61:T61&lt;&gt;""))=0,0.1,"N.A.")</f>
+        <v>N.A.</v>
+      </c>
+      <c r="D61" t="s">
+        <v>12</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62" t="str">
+        <f>'[1]Population Definitions'!$A$6</f>
+        <v>PLHIV 15+</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62">
+        <f>IF(SUMPRODUCT(--(E62:T62&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63" t="str">
+        <f>'[1]Population Definitions'!$A$7</f>
+        <v>Prisoners</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <f>IF(SUMPRODUCT(--(E63:T63&lt;&gt;""))=0,1,"N.A.")</f>
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B58:B63 B50:B55 B42:B47 B34:B39 B26:B31 B18:B23 B10:B15 B2:B7">
+      <formula1>"Proportion"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T55"/>
   <sheetViews>
@@ -22370,1181 +26276,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T47"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="60.6640625" customWidth="1"/>
-    <col min="2" max="3" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1">
-        <v>2000</v>
-      </c>
-      <c r="F1">
-        <v>2001</v>
-      </c>
-      <c r="G1">
-        <v>2002</v>
-      </c>
-      <c r="H1">
-        <v>2003</v>
-      </c>
-      <c r="I1">
-        <v>2004</v>
-      </c>
-      <c r="J1">
-        <v>2005</v>
-      </c>
-      <c r="K1">
-        <v>2006</v>
-      </c>
-      <c r="L1">
-        <v>2007</v>
-      </c>
-      <c r="M1">
-        <v>2008</v>
-      </c>
-      <c r="N1">
-        <v>2009</v>
-      </c>
-      <c r="O1">
-        <v>2010</v>
-      </c>
-      <c r="P1">
-        <v>2011</v>
-      </c>
-      <c r="Q1">
-        <v>2012</v>
-      </c>
-      <c r="R1">
-        <v>2013</v>
-      </c>
-      <c r="S1">
-        <v>2014</v>
-      </c>
-      <c r="T1">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2:C7" si="0">IF(SUMPRODUCT(--(E2:T2&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>N.A.</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <f>E10*'General Demographics'!E2</f>
-        <v>456286.05</v>
-      </c>
-      <c r="F2">
-        <f>F10*'General Demographics'!F2</f>
-        <v>450369.81</v>
-      </c>
-      <c r="G2">
-        <f>G10*'General Demographics'!G2</f>
-        <v>445354.47</v>
-      </c>
-      <c r="H2">
-        <f>H10*'General Demographics'!H2</f>
-        <v>441475.65</v>
-      </c>
-      <c r="I2">
-        <f>I10*'General Demographics'!I2</f>
-        <v>440731.17</v>
-      </c>
-      <c r="J2">
-        <f>J10*'General Demographics'!J2</f>
-        <v>444876.3</v>
-      </c>
-      <c r="K2">
-        <f>K10*'General Demographics'!K2</f>
-        <v>457835.4</v>
-      </c>
-      <c r="L2">
-        <f>L10*'General Demographics'!L2</f>
-        <v>463338.12</v>
-      </c>
-      <c r="M2">
-        <f>M10*'General Demographics'!M2</f>
-        <v>472912.72</v>
-      </c>
-      <c r="N2">
-        <f>N10*'General Demographics'!N2</f>
-        <v>484292.48</v>
-      </c>
-      <c r="O2">
-        <f>O10*'General Demographics'!O2</f>
-        <v>504297.08999999997</v>
-      </c>
-      <c r="P2">
-        <f>P10*'General Demographics'!P2</f>
-        <v>521368.65</v>
-      </c>
-      <c r="Q2">
-        <f>Q10*'General Demographics'!Q2</f>
-        <v>535039.81999999995</v>
-      </c>
-      <c r="R2">
-        <f>R10*'General Demographics'!R2</f>
-        <v>559281.68999999994</v>
-      </c>
-      <c r="S2">
-        <f>S10*'General Demographics'!S2</f>
-        <v>567536.62</v>
-      </c>
-      <c r="T2">
-        <f>T10*'General Demographics'!T2</f>
-        <v>568740.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>2000</v>
-      </c>
-      <c r="F9">
-        <v>2001</v>
-      </c>
-      <c r="G9">
-        <v>2002</v>
-      </c>
-      <c r="H9">
-        <v>2003</v>
-      </c>
-      <c r="I9">
-        <v>2004</v>
-      </c>
-      <c r="J9">
-        <v>2005</v>
-      </c>
-      <c r="K9">
-        <v>2006</v>
-      </c>
-      <c r="L9">
-        <v>2007</v>
-      </c>
-      <c r="M9">
-        <v>2008</v>
-      </c>
-      <c r="N9">
-        <v>2009</v>
-      </c>
-      <c r="O9">
-        <v>2010</v>
-      </c>
-      <c r="P9">
-        <v>2011</v>
-      </c>
-      <c r="Q9">
-        <v>2012</v>
-      </c>
-      <c r="R9">
-        <v>2013</v>
-      </c>
-      <c r="S9">
-        <v>2014</v>
-      </c>
-      <c r="T9">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ref="C10:C15" si="1">IF(SUMPRODUCT(--(E10:T10&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>N.A.</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>0.99</v>
-      </c>
-      <c r="F10">
-        <v>0.99</v>
-      </c>
-      <c r="G10">
-        <v>0.99</v>
-      </c>
-      <c r="H10">
-        <v>0.99</v>
-      </c>
-      <c r="I10">
-        <v>0.99</v>
-      </c>
-      <c r="J10">
-        <v>0.99</v>
-      </c>
-      <c r="K10">
-        <v>0.99</v>
-      </c>
-      <c r="L10">
-        <v>0.98</v>
-      </c>
-      <c r="M10">
-        <v>0.98</v>
-      </c>
-      <c r="N10">
-        <v>0.98</v>
-      </c>
-      <c r="O10">
-        <v>0.99</v>
-      </c>
-      <c r="P10">
-        <v>0.99</v>
-      </c>
-      <c r="Q10">
-        <v>0.98</v>
-      </c>
-      <c r="R10">
-        <v>0.99</v>
-      </c>
-      <c r="S10">
-        <v>0.98</v>
-      </c>
-      <c r="T10">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>2000</v>
-      </c>
-      <c r="F17">
-        <v>2001</v>
-      </c>
-      <c r="G17">
-        <v>2002</v>
-      </c>
-      <c r="H17">
-        <v>2003</v>
-      </c>
-      <c r="I17">
-        <v>2004</v>
-      </c>
-      <c r="J17">
-        <v>2005</v>
-      </c>
-      <c r="K17">
-        <v>2006</v>
-      </c>
-      <c r="L17">
-        <v>2007</v>
-      </c>
-      <c r="M17">
-        <v>2008</v>
-      </c>
-      <c r="N17">
-        <v>2009</v>
-      </c>
-      <c r="O17">
-        <v>2010</v>
-      </c>
-      <c r="P17">
-        <v>2011</v>
-      </c>
-      <c r="Q17">
-        <v>2012</v>
-      </c>
-      <c r="R17">
-        <v>2013</v>
-      </c>
-      <c r="S17">
-        <v>2014</v>
-      </c>
-      <c r="T17">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <f t="shared" ref="C18:C23" si="2">IF(SUMPRODUCT(--(E18:T18&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>2000</v>
-      </c>
-      <c r="F25">
-        <v>2001</v>
-      </c>
-      <c r="G25">
-        <v>2002</v>
-      </c>
-      <c r="H25">
-        <v>2003</v>
-      </c>
-      <c r="I25">
-        <v>2004</v>
-      </c>
-      <c r="J25">
-        <v>2005</v>
-      </c>
-      <c r="K25">
-        <v>2006</v>
-      </c>
-      <c r="L25">
-        <v>2007</v>
-      </c>
-      <c r="M25">
-        <v>2008</v>
-      </c>
-      <c r="N25">
-        <v>2009</v>
-      </c>
-      <c r="O25">
-        <v>2010</v>
-      </c>
-      <c r="P25">
-        <v>2011</v>
-      </c>
-      <c r="Q25">
-        <v>2012</v>
-      </c>
-      <c r="R25">
-        <v>2013</v>
-      </c>
-      <c r="S25">
-        <v>2014</v>
-      </c>
-      <c r="T25">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:C31" si="3">IF(SUMPRODUCT(--(E26:T26&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33">
-        <v>2000</v>
-      </c>
-      <c r="F33">
-        <v>2001</v>
-      </c>
-      <c r="G33">
-        <v>2002</v>
-      </c>
-      <c r="H33">
-        <v>2003</v>
-      </c>
-      <c r="I33">
-        <v>2004</v>
-      </c>
-      <c r="J33">
-        <v>2005</v>
-      </c>
-      <c r="K33">
-        <v>2006</v>
-      </c>
-      <c r="L33">
-        <v>2007</v>
-      </c>
-      <c r="M33">
-        <v>2008</v>
-      </c>
-      <c r="N33">
-        <v>2009</v>
-      </c>
-      <c r="O33">
-        <v>2010</v>
-      </c>
-      <c r="P33">
-        <v>2011</v>
-      </c>
-      <c r="Q33">
-        <v>2012</v>
-      </c>
-      <c r="R33">
-        <v>2013</v>
-      </c>
-      <c r="S33">
-        <v>2014</v>
-      </c>
-      <c r="T33">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <f t="shared" ref="C34:C39" si="4">IF(SUMPRODUCT(--(E34:T34&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D34" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D35" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
-      <c r="A39" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
-      <c r="A41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41">
-        <v>2000</v>
-      </c>
-      <c r="F41">
-        <v>2001</v>
-      </c>
-      <c r="G41">
-        <v>2002</v>
-      </c>
-      <c r="H41">
-        <v>2003</v>
-      </c>
-      <c r="I41">
-        <v>2004</v>
-      </c>
-      <c r="J41">
-        <v>2005</v>
-      </c>
-      <c r="K41">
-        <v>2006</v>
-      </c>
-      <c r="L41">
-        <v>2007</v>
-      </c>
-      <c r="M41">
-        <v>2008</v>
-      </c>
-      <c r="N41">
-        <v>2009</v>
-      </c>
-      <c r="O41">
-        <v>2010</v>
-      </c>
-      <c r="P41">
-        <v>2011</v>
-      </c>
-      <c r="Q41">
-        <v>2012</v>
-      </c>
-      <c r="R41">
-        <v>2013</v>
-      </c>
-      <c r="S41">
-        <v>2014</v>
-      </c>
-      <c r="T41">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42" t="str">
-        <f>'Population Definitions'!$A$2</f>
-        <v>Gen 0-4</v>
-      </c>
-      <c r="B42" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42">
-        <f t="shared" ref="C42:C47" si="5">IF(SUMPRODUCT(--(E42:T42&lt;&gt;""))=0,0,"N.A.")</f>
-        <v>0</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43" t="str">
-        <f>'Population Definitions'!$A$3</f>
-        <v>Gen 5-14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44" t="str">
-        <f>'Population Definitions'!$A$4</f>
-        <v>Gen 15-64</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45" t="str">
-        <f>'Population Definitions'!$A$5</f>
-        <v>Gen 65+</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46" t="str">
-        <f>'Population Definitions'!$A$6</f>
-        <v>PLHIV 15+</v>
-      </c>
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47" t="str">
-        <f>'Population Definitions'!$A$7</f>
-        <v>Prisoners</v>
-      </c>
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="36">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B3">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B4">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B5">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B6">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B7">
-      <formula1>"Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B10">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B11">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B12">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B13">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B14">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B18">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B19">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B20">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B21">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B23">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B26">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B27">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B28">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B29">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B30">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B31">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B34">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B35">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B36">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B37">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B43">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B44">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B46">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B47">
-      <formula1>"Fraction,Number"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>